--- a/Tabela de Permissões/permission's table.xlsx
+++ b/Tabela de Permissões/permission's table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebarbosa\OneDrive - Baymetrics Tecnologia\Documentos\Projetos\Repositorios\SysLab\Tabela de Permissões\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baymetrics-my.sharepoint.com/personal/erick_barbosa_baymetrics_com_br/Documents/Documentos/Projetos/Repositorios/SysLab/Tabela de Permissões/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB2CC27-1B57-4AEC-A5AB-4A51834076D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{2DB2CC27-1B57-4AEC-A5AB-4A51834076D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFD181BA-EF44-451F-8FA0-FC8DBD8568A4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelas de Permissão" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="100">
   <si>
     <t>sys_admin</t>
   </si>
@@ -886,27 +886,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,15 +902,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,11 +934,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="248">
+  <dxfs count="256">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2993,90 +3049,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="22" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1796875" customWidth="1"/>
+    <col min="22" max="22" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="30"/>
-      <c r="X2" s="37" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="23"/>
+      <c r="X2" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="33"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="26"/>
       <c r="X3" s="13" t="s">
         <v>52</v>
       </c>
@@ -3087,40 +3143,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="25" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="25" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="25" t="s">
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="25" t="s">
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="27"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="45"/>
       <c r="X4" s="16" t="s">
         <v>78</v>
       </c>
@@ -3131,7 +3187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -3203,7 +3259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -3212,29 +3268,27 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="21"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="21"/>
+      <c r="N6" s="37"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="24" t="s">
+      <c r="T6" s="29"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="40" t="s">
         <v>19</v>
       </c>
       <c r="X6" s="12" t="s">
@@ -3247,7 +3301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -3256,13 +3310,13 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="6" t="s">
         <v>19</v>
       </c>
@@ -3270,17 +3324,19 @@
         <v>31</v>
       </c>
       <c r="M7" s="6"/>
-      <c r="N7" s="22"/>
+      <c r="N7" s="38"/>
       <c r="O7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="22"/>
+      <c r="P7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="38"/>
       <c r="X7" s="12" t="s">
         <v>80</v>
       </c>
@@ -3291,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3300,13 +3356,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="6" t="s">
         <v>19</v>
       </c>
@@ -3316,17 +3372,19 @@
       <c r="M8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="22"/>
+      <c r="N8" s="38"/>
       <c r="O8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="22"/>
+      <c r="P8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="38"/>
       <c r="X8" s="12" t="s">
         <v>81</v>
       </c>
@@ -3337,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
@@ -3346,13 +3404,13 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="22"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="6" t="s">
         <v>19</v>
       </c>
@@ -3362,17 +3420,21 @@
       <c r="M9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="22"/>
+      <c r="N9" s="38"/>
       <c r="O9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="22"/>
+      <c r="P9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="38"/>
       <c r="X9" s="12" t="s">
         <v>62</v>
       </c>
@@ -3383,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -3392,7 +3454,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="6" t="s">
         <v>19</v>
       </c>
@@ -3400,7 +3462,7 @@
         <v>19</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="22"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="6" t="s">
         <v>19</v>
       </c>
@@ -3410,17 +3472,21 @@
       <c r="M10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="22"/>
+      <c r="N10" s="38"/>
       <c r="O10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="22"/>
+      <c r="P10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="38"/>
       <c r="X10" s="12" t="s">
         <v>63</v>
       </c>
@@ -3431,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -3440,7 +3506,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3448,7 +3514,7 @@
         <v>19</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="22"/>
+      <c r="J11" s="38"/>
       <c r="K11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3458,17 +3524,21 @@
       <c r="M11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="22"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="22"/>
+      <c r="P11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="38"/>
       <c r="X11" s="12" t="s">
         <v>64</v>
       </c>
@@ -3479,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -3488,13 +3558,13 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="6" t="s">
         <v>19</v>
       </c>
@@ -3504,17 +3574,21 @@
       <c r="M12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="22"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="22"/>
+      <c r="P12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="38"/>
       <c r="X12" s="12" t="s">
         <v>65</v>
       </c>
@@ -3525,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
@@ -3534,13 +3608,13 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="22"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="6" t="s">
         <v>19</v>
       </c>
@@ -3550,19 +3624,23 @@
       <c r="M13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="22"/>
+      <c r="N13" s="38"/>
       <c r="O13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="22"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="P13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="38"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
@@ -3571,13 +3649,13 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="23"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="6" t="s">
         <v>19</v>
       </c>
@@ -3587,68 +3665,72 @@
       <c r="M14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="23"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="23"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="P14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="39"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="39"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="30"/>
-      <c r="X16" s="25" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="23"/>
+      <c r="X16" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="33"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="45"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
       <c r="X17" s="13" t="s">
         <v>52</v>
       </c>
@@ -3659,40 +3741,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B18" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="25" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="25" t="s">
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="37" t="s">
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37" t="s">
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
       <c r="X18" s="12" t="s">
         <v>82</v>
       </c>
@@ -3703,8 +3785,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B19" s="41"/>
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
@@ -3775,36 +3857,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="12"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="21"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="21"/>
+      <c r="N20" s="37"/>
       <c r="O20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="38" t="s">
+      <c r="R20" s="37"/>
+      <c r="S20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T20" s="39"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="24" t="s">
+      <c r="T20" s="29"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="40" t="s">
         <v>19</v>
       </c>
       <c r="X20" s="12" t="s">
@@ -3817,26 +3899,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="22"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="22"/>
+      <c r="N21" s="38"/>
       <c r="O21" s="6" t="s">
         <v>19</v>
       </c>
@@ -3846,11 +3928,11 @@
       <c r="Q21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="22"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="24"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="40"/>
       <c r="X21" s="12" t="s">
         <v>66</v>
       </c>
@@ -3861,26 +3943,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="22"/>
+      <c r="J22" s="38"/>
       <c r="K22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="22"/>
+      <c r="N22" s="38"/>
       <c r="O22" s="6" t="s">
         <v>19</v>
       </c>
@@ -3890,11 +3972,11 @@
       <c r="Q22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="22"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="24"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="40"/>
       <c r="X22" s="12" t="s">
         <v>67</v>
       </c>
@@ -3905,26 +3987,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="22"/>
+      <c r="J23" s="38"/>
       <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="22"/>
+      <c r="N23" s="38"/>
       <c r="O23" s="6" t="s">
         <v>19</v>
       </c>
@@ -3934,32 +4016,32 @@
       <c r="Q23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R23" s="22"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="24"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="R23" s="38"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="40"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="22"/>
+      <c r="J24" s="38"/>
       <c r="K24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="22"/>
+      <c r="N24" s="38"/>
       <c r="O24" s="6" t="s">
         <v>19</v>
       </c>
@@ -3969,32 +4051,32 @@
       <c r="Q24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R24" s="22"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="24"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="R24" s="38"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="40"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="22"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="22"/>
+      <c r="N25" s="38"/>
       <c r="O25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4004,32 +4086,32 @@
       <c r="Q25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R25" s="22"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="24"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="R25" s="38"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="40"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="23"/>
+      <c r="F26" s="39"/>
       <c r="G26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="23"/>
+      <c r="J26" s="39"/>
       <c r="K26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="23"/>
+      <c r="N26" s="39"/>
       <c r="O26" s="6" t="s">
         <v>19</v>
       </c>
@@ -4039,64 +4121,64 @@
       <c r="Q26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R26" s="23"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="24"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
+      <c r="R26" s="39"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="40"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="30"/>
-      <c r="X28" s="25" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="23"/>
+      <c r="X28" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="27"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="33"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="45"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="26"/>
       <c r="X29" s="13" t="s">
         <v>52</v>
       </c>
@@ -4107,40 +4189,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B30" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="37" t="s">
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="25" t="s">
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="37" t="s">
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37" t="s">
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
       <c r="X30" s="12" t="s">
         <v>85</v>
       </c>
@@ -4151,8 +4233,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B31" s="34"/>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B31" s="41"/>
       <c r="C31" s="3" t="s">
         <v>6</v>
       </c>
@@ -4223,36 +4305,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="21"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="21"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="21"/>
+      <c r="N32" s="37"/>
       <c r="O32" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="24" t="s">
+      <c r="R32" s="37"/>
+      <c r="S32" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="21" t="s">
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="37" t="s">
         <v>19</v>
       </c>
       <c r="X32" s="12" t="s">
@@ -4265,26 +4347,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="22"/>
+      <c r="J33" s="38"/>
       <c r="K33" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="22"/>
+      <c r="N33" s="38"/>
       <c r="O33" s="6" t="s">
         <v>19</v>
       </c>
@@ -4294,11 +4376,11 @@
       <c r="Q33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R33" s="22"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="22"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="38"/>
       <c r="X33" s="12" t="s">
         <v>68</v>
       </c>
@@ -4309,26 +4391,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="22"/>
+      <c r="J34" s="38"/>
       <c r="K34" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="22"/>
+      <c r="N34" s="38"/>
       <c r="O34" s="6" t="s">
         <v>19</v>
       </c>
@@ -4338,11 +4420,11 @@
       <c r="Q34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R34" s="22"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="22"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="38"/>
       <c r="X34" s="12" t="s">
         <v>69</v>
       </c>
@@ -4353,26 +4435,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="23"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="23"/>
+      <c r="J35" s="39"/>
       <c r="K35" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="23"/>
+      <c r="N35" s="39"/>
       <c r="O35" s="6" t="s">
         <v>19</v>
       </c>
@@ -4382,64 +4464,64 @@
       <c r="Q35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="23"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="23"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
+      <c r="R35" s="39"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="39"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B37" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="30"/>
-      <c r="X37" s="25" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="23"/>
+      <c r="X37" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="27"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="33"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="45"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="26"/>
       <c r="X38" s="13" t="s">
         <v>52</v>
       </c>
@@ -4450,40 +4532,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B39" s="34" t="s">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B39" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="25" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="25" t="s">
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="25" t="s">
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="25" t="s">
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="27"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="45"/>
       <c r="X39" s="12" t="s">
         <v>88</v>
       </c>
@@ -4494,8 +4576,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B40" s="35"/>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B40" s="42"/>
       <c r="C40" s="3" t="s">
         <v>6</v>
       </c>
@@ -4566,28 +4648,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24" t="s">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="38" t="s">
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="L41" s="39"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="24" t="s">
+      <c r="L41" s="29"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="40" t="s">
         <v>19</v>
       </c>
       <c r="O41" s="6" t="s">
@@ -4595,13 +4677,13 @@
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="21"/>
+      <c r="R41" s="37"/>
       <c r="S41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="T41" s="6"/>
       <c r="U41" s="7"/>
-      <c r="V41" s="21"/>
+      <c r="V41" s="37"/>
       <c r="X41" s="12" t="s">
         <v>70</v>
       </c>
@@ -4612,28 +4694,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="24"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="40"/>
       <c r="O42" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="22"/>
+      <c r="R42" s="38"/>
       <c r="S42" s="6" t="s">
         <v>19</v>
       </c>
@@ -4641,30 +4723,30 @@
         <v>19</v>
       </c>
       <c r="U42" s="7"/>
-      <c r="V42" s="22"/>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V42" s="38"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="24"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="40"/>
       <c r="O43" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="22"/>
+      <c r="R43" s="38"/>
       <c r="S43" s="6" t="s">
         <v>19</v>
       </c>
@@ -4672,30 +4754,30 @@
         <v>19</v>
       </c>
       <c r="U43" s="7"/>
-      <c r="V43" s="22"/>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V43" s="38"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="24"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="40"/>
       <c r="O44" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="22"/>
+      <c r="R44" s="38"/>
       <c r="S44" s="6" t="s">
         <v>19</v>
       </c>
@@ -4703,30 +4785,30 @@
         <v>19</v>
       </c>
       <c r="U44" s="7"/>
-      <c r="V44" s="22"/>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V44" s="38"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B45" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="24"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="40"/>
       <c r="O45" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="22"/>
+      <c r="R45" s="38"/>
       <c r="S45" s="6" t="s">
         <v>19</v>
       </c>
@@ -4734,30 +4816,30 @@
         <v>19</v>
       </c>
       <c r="U45" s="7"/>
-      <c r="V45" s="22"/>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V45" s="38"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="24"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="40"/>
       <c r="O46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="23"/>
+      <c r="R46" s="39"/>
       <c r="S46" s="6" t="s">
         <v>19</v>
       </c>
@@ -4765,60 +4847,60 @@
         <v>30</v>
       </c>
       <c r="U46" s="7"/>
-      <c r="V46" s="23"/>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B48" s="28" t="s">
+      <c r="V46" s="39"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B48" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="30"/>
-      <c r="X48" s="25" t="s">
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="23"/>
+      <c r="X48" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="27"/>
-    </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="33"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="45"/>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="26"/>
       <c r="X49" s="13" t="s">
         <v>52</v>
       </c>
@@ -4829,40 +4911,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B50" s="34" t="s">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B50" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="25" t="s">
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="25" t="s">
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="25" t="s">
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="25" t="s">
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="27"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="45"/>
       <c r="X50" s="12" t="s">
         <v>90</v>
       </c>
@@ -4873,8 +4955,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B51" s="35"/>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B51" s="42"/>
       <c r="C51" s="3" t="s">
         <v>6</v>
       </c>
@@ -4945,28 +5027,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="38" t="s">
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="38" t="s">
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="39"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="21" t="s">
+      <c r="L52" s="29"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="37" t="s">
         <v>19</v>
       </c>
       <c r="O52" s="12" t="s">
@@ -4974,13 +5056,13 @@
       </c>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
-      <c r="R52" s="21"/>
+      <c r="R52" s="37"/>
       <c r="S52" s="12" t="s">
         <v>19</v>
       </c>
       <c r="T52" s="12"/>
       <c r="U52" s="8"/>
-      <c r="V52" s="24"/>
+      <c r="V52" s="40"/>
       <c r="X52" s="12" t="s">
         <v>71</v>
       </c>
@@ -4991,28 +5073,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B53" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="22"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="38"/>
       <c r="O53" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
-      <c r="R53" s="22"/>
+      <c r="R53" s="38"/>
       <c r="S53" s="12" t="s">
         <v>19</v>
       </c>
@@ -5020,30 +5102,30 @@
         <v>19</v>
       </c>
       <c r="U53" s="8"/>
-      <c r="V53" s="24"/>
-    </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V53" s="40"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B54" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="23"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="39"/>
       <c r="O54" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
-      <c r="R54" s="23"/>
+      <c r="R54" s="39"/>
       <c r="S54" s="12" t="s">
         <v>19</v>
       </c>
@@ -5051,60 +5133,60 @@
         <v>31</v>
       </c>
       <c r="U54" s="7"/>
-      <c r="V54" s="24"/>
-    </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B56" s="28" t="s">
+      <c r="V54" s="40"/>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B56" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="30"/>
-      <c r="X56" s="25" t="s">
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="23"/>
+      <c r="X56" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Y56" s="26"/>
-      <c r="Z56" s="27"/>
-    </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B57" s="31"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="32"/>
-      <c r="V57" s="33"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="45"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="26"/>
       <c r="X57" s="13" t="s">
         <v>52</v>
       </c>
@@ -5115,40 +5197,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B58" s="34" t="s">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B58" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="25" t="s">
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="25" t="s">
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="25" t="s">
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="25" t="s">
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="27"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="45"/>
       <c r="X58" s="12" t="s">
         <v>92</v>
       </c>
@@ -5159,8 +5241,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B59" s="35"/>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B59" s="42"/>
       <c r="C59" s="3" t="s">
         <v>6</v>
       </c>
@@ -5231,28 +5313,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="38" t="s">
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="38" t="s">
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="L60" s="39"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="21" t="s">
+      <c r="L60" s="29"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="37" t="s">
         <v>19</v>
       </c>
       <c r="O60" s="12" t="s">
@@ -5260,13 +5342,13 @@
       </c>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
-      <c r="R60" s="21"/>
+      <c r="R60" s="37"/>
       <c r="S60" s="12" t="s">
         <v>19</v>
       </c>
       <c r="T60" s="12"/>
       <c r="U60" s="8"/>
-      <c r="V60" s="24"/>
+      <c r="V60" s="40"/>
       <c r="X60" s="12" t="s">
         <v>73</v>
       </c>
@@ -5277,28 +5359,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B61" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="22"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="38"/>
       <c r="O61" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
-      <c r="R61" s="22"/>
+      <c r="R61" s="38"/>
       <c r="S61" s="12" t="s">
         <v>19</v>
       </c>
@@ -5306,30 +5388,30 @@
         <v>19</v>
       </c>
       <c r="U61" s="8"/>
-      <c r="V61" s="24"/>
-    </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V61" s="40"/>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B62" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="23"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="39"/>
       <c r="O62" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
-      <c r="R62" s="23"/>
+      <c r="R62" s="39"/>
       <c r="S62" s="12" t="s">
         <v>19</v>
       </c>
@@ -5337,60 +5419,60 @@
         <v>31</v>
       </c>
       <c r="U62" s="7"/>
-      <c r="V62" s="24"/>
-    </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B64" s="28" t="s">
+      <c r="V62" s="40"/>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B64" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="30"/>
-      <c r="X64" s="25" t="s">
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="23"/>
+      <c r="X64" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Y64" s="26"/>
-      <c r="Z64" s="27"/>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B65" s="31"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="33"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="45"/>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="26"/>
       <c r="X65" s="13" t="s">
         <v>52</v>
       </c>
@@ -5401,40 +5483,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B66" s="34" t="s">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B66" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="25" t="s">
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="25" t="s">
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="25" t="s">
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="25" t="s">
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="T66" s="26"/>
-      <c r="U66" s="26"/>
-      <c r="V66" s="27"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="45"/>
       <c r="X66" s="12" t="s">
         <v>94</v>
       </c>
@@ -5445,8 +5527,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B67" s="35"/>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B67" s="42"/>
       <c r="C67" s="3" t="s">
         <v>6</v>
       </c>
@@ -5517,28 +5599,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B68" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="38" t="s">
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="38" t="s">
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="L68" s="39"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="21" t="s">
+      <c r="L68" s="29"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="37" t="s">
         <v>19</v>
       </c>
       <c r="O68" s="12" t="s">
@@ -5546,13 +5628,13 @@
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
-      <c r="R68" s="21"/>
+      <c r="R68" s="37"/>
       <c r="S68" s="12" t="s">
         <v>19</v>
       </c>
       <c r="T68" s="12"/>
       <c r="U68" s="8"/>
-      <c r="V68" s="24"/>
+      <c r="V68" s="40"/>
       <c r="X68" s="12" t="s">
         <v>74</v>
       </c>
@@ -5563,28 +5645,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B69" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C69" s="41"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="22"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="38"/>
       <c r="O69" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
-      <c r="R69" s="22"/>
+      <c r="R69" s="38"/>
       <c r="S69" s="12" t="s">
         <v>19</v>
       </c>
@@ -5592,30 +5674,30 @@
         <v>19</v>
       </c>
       <c r="U69" s="8"/>
-      <c r="V69" s="24"/>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V69" s="40"/>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="41"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="22"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="38"/>
       <c r="O70" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
-      <c r="R70" s="22"/>
+      <c r="R70" s="38"/>
       <c r="S70" s="12" t="s">
         <v>19</v>
       </c>
@@ -5623,30 +5705,30 @@
         <v>19</v>
       </c>
       <c r="U70" s="8"/>
-      <c r="V70" s="24"/>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V70" s="40"/>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B71" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="41"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="22"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="38"/>
       <c r="O71" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
-      <c r="R71" s="22"/>
+      <c r="R71" s="38"/>
       <c r="S71" s="12" t="s">
         <v>19</v>
       </c>
@@ -5654,30 +5736,30 @@
         <v>31</v>
       </c>
       <c r="U71" s="8"/>
-      <c r="V71" s="24"/>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V71" s="40"/>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B72" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="44"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="44"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="23"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="39"/>
       <c r="O72" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
-      <c r="R72" s="23"/>
+      <c r="R72" s="39"/>
       <c r="S72" s="12" t="s">
         <v>19</v>
       </c>
@@ -5685,60 +5767,60 @@
         <v>19</v>
       </c>
       <c r="U72" s="7"/>
-      <c r="V72" s="24"/>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B74" s="28" t="s">
+      <c r="V72" s="40"/>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B74" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="29"/>
-      <c r="U74" s="29"/>
-      <c r="V74" s="30"/>
-      <c r="X74" s="25" t="s">
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="23"/>
+      <c r="X74" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Y74" s="26"/>
-      <c r="Z74" s="27"/>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B75" s="31"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="32"/>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="32"/>
-      <c r="R75" s="32"/>
-      <c r="S75" s="32"/>
-      <c r="T75" s="32"/>
-      <c r="U75" s="32"/>
-      <c r="V75" s="33"/>
+      <c r="Y74" s="44"/>
+      <c r="Z74" s="45"/>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="26"/>
       <c r="X75" s="13" t="s">
         <v>52</v>
       </c>
@@ -5749,40 +5831,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B76" s="34" t="s">
+    <row r="76" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B76" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="25" t="s">
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="25" t="s">
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="25" t="s">
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="27"/>
-      <c r="S76" s="25" t="s">
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="45"/>
+      <c r="S76" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="T76" s="26"/>
-      <c r="U76" s="26"/>
-      <c r="V76" s="27"/>
+      <c r="T76" s="44"/>
+      <c r="U76" s="44"/>
+      <c r="V76" s="45"/>
       <c r="X76" s="12" t="s">
         <v>96</v>
       </c>
@@ -5793,8 +5875,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B77" s="35"/>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B77" s="42"/>
       <c r="C77" s="3" t="s">
         <v>6</v>
       </c>
@@ -5865,28 +5947,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B78" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="38" t="s">
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="38" t="s">
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="39"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="21" t="s">
+      <c r="L78" s="29"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="37" t="s">
         <v>19</v>
       </c>
       <c r="O78" s="12" t="s">
@@ -5894,13 +5976,13 @@
       </c>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
-      <c r="R78" s="21"/>
+      <c r="R78" s="37"/>
       <c r="S78" s="12" t="s">
         <v>19</v>
       </c>
       <c r="T78" s="12"/>
       <c r="U78" s="8"/>
-      <c r="V78" s="24"/>
+      <c r="V78" s="40"/>
       <c r="X78" s="12" t="s">
         <v>75</v>
       </c>
@@ -5911,28 +5993,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B79" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="22"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="38"/>
       <c r="O79" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
-      <c r="R79" s="22"/>
+      <c r="R79" s="38"/>
       <c r="S79" s="12" t="s">
         <v>19</v>
       </c>
@@ -5940,30 +6022,30 @@
         <v>19</v>
       </c>
       <c r="U79" s="8"/>
-      <c r="V79" s="24"/>
-    </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V79" s="40"/>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B80" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="22"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="38"/>
       <c r="O80" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
-      <c r="R80" s="22"/>
+      <c r="R80" s="38"/>
       <c r="S80" s="12" t="s">
         <v>19</v>
       </c>
@@ -5971,30 +6053,30 @@
         <v>31</v>
       </c>
       <c r="U80" s="8"/>
-      <c r="V80" s="24"/>
-    </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V80" s="40"/>
+    </row>
+    <row r="81" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B81" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="23"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="39"/>
       <c r="O81" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
-      <c r="R81" s="23"/>
+      <c r="R81" s="39"/>
       <c r="S81" s="12" t="s">
         <v>19</v>
       </c>
@@ -6002,60 +6084,60 @@
         <v>19</v>
       </c>
       <c r="U81" s="7"/>
-      <c r="V81" s="24"/>
-    </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B83" s="28" t="s">
+      <c r="V81" s="40"/>
+    </row>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B83" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="29"/>
-      <c r="V83" s="30"/>
-      <c r="X83" s="25" t="s">
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="23"/>
+      <c r="X83" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="Y83" s="26"/>
-      <c r="Z83" s="27"/>
-    </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B84" s="31"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="33"/>
+      <c r="Y83" s="44"/>
+      <c r="Z83" s="45"/>
+    </row>
+    <row r="84" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="26"/>
       <c r="X84" s="13" t="s">
         <v>52</v>
       </c>
@@ -6066,40 +6148,40 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B85" s="34" t="s">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B85" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="25" t="s">
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="25" t="s">
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L85" s="26"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="25" t="s">
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="45"/>
+      <c r="O85" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="26"/>
-      <c r="R85" s="27"/>
-      <c r="S85" s="25" t="s">
+      <c r="P85" s="44"/>
+      <c r="Q85" s="44"/>
+      <c r="R85" s="45"/>
+      <c r="S85" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="T85" s="26"/>
-      <c r="U85" s="26"/>
-      <c r="V85" s="27"/>
+      <c r="T85" s="44"/>
+      <c r="U85" s="44"/>
+      <c r="V85" s="45"/>
       <c r="X85" s="12" t="s">
         <v>98</v>
       </c>
@@ -6110,8 +6192,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B86" s="35"/>
+    <row r="86" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B86" s="42"/>
       <c r="C86" s="3" t="s">
         <v>6</v>
       </c>
@@ -6182,28 +6264,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B87" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="38" t="s">
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="38" t="s">
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="L87" s="39"/>
-      <c r="M87" s="40"/>
-      <c r="N87" s="21" t="s">
+      <c r="L87" s="29"/>
+      <c r="M87" s="30"/>
+      <c r="N87" s="37" t="s">
         <v>19</v>
       </c>
       <c r="O87" s="12" t="s">
@@ -6211,13 +6293,13 @@
       </c>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
-      <c r="R87" s="21"/>
+      <c r="R87" s="37"/>
       <c r="S87" s="12" t="s">
         <v>19</v>
       </c>
       <c r="T87" s="12"/>
       <c r="U87" s="8"/>
-      <c r="V87" s="24"/>
+      <c r="V87" s="40"/>
       <c r="X87" s="12" t="s">
         <v>76</v>
       </c>
@@ -6228,28 +6310,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B88" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C88" s="41"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="22"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="38"/>
       <c r="O88" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
-      <c r="R88" s="22"/>
+      <c r="R88" s="38"/>
       <c r="S88" s="12" t="s">
         <v>19</v>
       </c>
@@ -6257,30 +6339,30 @@
         <v>19</v>
       </c>
       <c r="U88" s="8"/>
-      <c r="V88" s="24"/>
-    </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V88" s="40"/>
+    </row>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B89" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="41"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="43"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="43"/>
-      <c r="N89" s="22"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="38"/>
       <c r="O89" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
-      <c r="R89" s="22"/>
+      <c r="R89" s="38"/>
       <c r="S89" s="12" t="s">
         <v>19</v>
       </c>
@@ -6288,30 +6370,30 @@
         <v>19</v>
       </c>
       <c r="U89" s="8"/>
-      <c r="V89" s="24"/>
-    </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V89" s="40"/>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B90" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="41"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="42"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="22"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="38"/>
       <c r="O90" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
-      <c r="R90" s="22"/>
+      <c r="R90" s="38"/>
       <c r="S90" s="12" t="s">
         <v>19</v>
       </c>
@@ -6319,30 +6401,30 @@
         <v>19</v>
       </c>
       <c r="U90" s="8"/>
-      <c r="V90" s="24"/>
-    </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V90" s="40"/>
+    </row>
+    <row r="91" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B91" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="46"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="45"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="23"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="39"/>
       <c r="O91" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
-      <c r="R91" s="23"/>
+      <c r="R91" s="39"/>
       <c r="S91" s="12" t="s">
         <v>19</v>
       </c>
@@ -6350,10 +6432,111 @@
         <v>31</v>
       </c>
       <c r="U91" s="7"/>
-      <c r="V91" s="24"/>
+      <c r="V91" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="R6:R14"/>
+    <mergeCell ref="R60:R62"/>
+    <mergeCell ref="V60:V62"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="X74:Z74"/>
+    <mergeCell ref="X83:Z83"/>
+    <mergeCell ref="J20:J26"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="V41:V46"/>
+    <mergeCell ref="R41:R46"/>
+    <mergeCell ref="V32:V35"/>
+    <mergeCell ref="S32:U35"/>
+    <mergeCell ref="G68:J72"/>
+    <mergeCell ref="B64:V65"/>
+    <mergeCell ref="O66:R66"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="C68:F72"/>
+    <mergeCell ref="K68:M72"/>
+    <mergeCell ref="N68:N72"/>
+    <mergeCell ref="R68:R72"/>
+    <mergeCell ref="V68:V72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="B56:V57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="S58:V58"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="K41:M46"/>
+    <mergeCell ref="N41:N46"/>
+    <mergeCell ref="B37:V38"/>
+    <mergeCell ref="C41:F46"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="B28:V29"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="C60:F62"/>
+    <mergeCell ref="G60:J62"/>
+    <mergeCell ref="K60:M62"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="R20:R26"/>
+    <mergeCell ref="N20:N26"/>
+    <mergeCell ref="S20:U26"/>
+    <mergeCell ref="V20:V26"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="J6:J14"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="N6:N14"/>
+    <mergeCell ref="F20:F26"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="F6:F14"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="S6:U14"/>
+    <mergeCell ref="V6:V14"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="N60:N62"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="O76:R76"/>
+    <mergeCell ref="S76:V76"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="B74:V75"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="N52:N54"/>
+    <mergeCell ref="C52:F54"/>
+    <mergeCell ref="K52:M54"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G41:J46"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G52:J54"/>
+    <mergeCell ref="B48:V49"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="V52:V54"/>
+    <mergeCell ref="R52:R54"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="B2:V3"/>
     <mergeCell ref="B16:V17"/>
     <mergeCell ref="X2:Z2"/>
@@ -6378,992 +6561,908 @@
     <mergeCell ref="G78:J81"/>
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="C76:F76"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="O76:R76"/>
-    <mergeCell ref="S76:V76"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="B74:V75"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="N52:N54"/>
-    <mergeCell ref="C52:F54"/>
-    <mergeCell ref="K52:M54"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G41:J46"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G52:J54"/>
-    <mergeCell ref="B48:V49"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="V52:V54"/>
-    <mergeCell ref="R52:R54"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="S50:V50"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C60:F62"/>
-    <mergeCell ref="G60:J62"/>
-    <mergeCell ref="K60:M62"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="R20:R26"/>
-    <mergeCell ref="N20:N26"/>
-    <mergeCell ref="S20:U26"/>
-    <mergeCell ref="V20:V26"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="J6:J14"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="N6:N14"/>
-    <mergeCell ref="P6:R14"/>
-    <mergeCell ref="F20:F26"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="F6:F14"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="S6:U14"/>
-    <mergeCell ref="V6:V14"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="B28:V29"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="B56:V57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="O58:R58"/>
-    <mergeCell ref="S58:V58"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="K41:M46"/>
-    <mergeCell ref="N41:N46"/>
-    <mergeCell ref="B37:V38"/>
-    <mergeCell ref="C41:F46"/>
-    <mergeCell ref="N60:N62"/>
-    <mergeCell ref="R60:R62"/>
-    <mergeCell ref="V60:V62"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="X74:Z74"/>
-    <mergeCell ref="X83:Z83"/>
-    <mergeCell ref="J20:J26"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="V41:V46"/>
-    <mergeCell ref="R41:R46"/>
-    <mergeCell ref="V32:V35"/>
-    <mergeCell ref="S32:U35"/>
-    <mergeCell ref="G68:J72"/>
-    <mergeCell ref="B64:V65"/>
-    <mergeCell ref="O66:R66"/>
-    <mergeCell ref="S66:V66"/>
-    <mergeCell ref="C68:F72"/>
-    <mergeCell ref="K68:M72"/>
-    <mergeCell ref="N68:N72"/>
-    <mergeCell ref="R68:R72"/>
-    <mergeCell ref="V68:V72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <conditionalFormatting sqref="C41 C78:C79 K78:K79 N78:V79">
-    <cfRule type="cellIs" dxfId="247" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="257" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="258" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="245" priority="251" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="253" priority="259" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C41))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="252" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="252" priority="260" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="243" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="201" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="202" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="241" priority="195" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="249" priority="203" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C52))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="196" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="248" priority="204" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="containsText" dxfId="239" priority="24" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="247" priority="32" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="29" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="30" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="236" priority="23" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="244" priority="31" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C60))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C70">
-    <cfRule type="cellIs" dxfId="235" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="181" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="182" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="233" priority="175" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="241" priority="183" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C68))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="176" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="240" priority="184" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="notContainsText" dxfId="231" priority="135" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="239" priority="143" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C87))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="136" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="238" priority="144" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C87)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="142" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="141" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E14">
-    <cfRule type="cellIs" dxfId="227" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="303" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="297" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="234" priority="305" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C6)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="225" priority="296" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="233" priority="304" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C6))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="302" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:E26">
-    <cfRule type="notContainsText" dxfId="223" priority="93" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="231" priority="101" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C20))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="100" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="99" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="94" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="228" priority="102" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:E35">
-    <cfRule type="containsText" dxfId="219" priority="80" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="227" priority="88" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="86" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="85" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="216" priority="79" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="224" priority="87" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:F32">
-    <cfRule type="containsText" dxfId="215" priority="84" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="223" priority="92" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C32)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="214" priority="83" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="222" priority="91" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C32))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="89" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="90" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="211" priority="293" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="219" priority="301" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",F6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="299" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="298" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="208" priority="292" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="216" priority="300" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",F6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="207" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="95" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="206" priority="89" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="214" priority="97" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",F20))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="96" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="90" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="212" priority="98" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="notContainsText" dxfId="203" priority="85" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="211" priority="93" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",F32))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="86" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="210" priority="94" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G26">
-    <cfRule type="containsText" dxfId="201" priority="36" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="209" priority="44" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="41" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="42" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="198" priority="35" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="206" priority="43" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G35">
-    <cfRule type="containsText" dxfId="197" priority="32" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="205" priority="40" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="37" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="38" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="194" priority="31" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="202" priority="39" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G32))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="193" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="82" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="192" priority="75" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="200" priority="83" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G41))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="76" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="199" priority="84" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="81" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="189" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="61" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="62" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="187" priority="55" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="195" priority="63" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G52))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="56" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="194" priority="64" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="containsText" dxfId="185" priority="8" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="193" priority="16" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="13" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="182" priority="7" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="190" priority="15" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G60))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:G70">
-    <cfRule type="cellIs" dxfId="181" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="58" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="57" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="52" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="187" priority="60" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G68)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="178" priority="51" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="186" priority="59" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G68))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:G79">
-    <cfRule type="containsText" dxfId="177" priority="48" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="185" priority="56" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G78)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="53" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="54" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="174" priority="47" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="182" priority="55" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G78))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:G89">
-    <cfRule type="notContainsText" dxfId="173" priority="43" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="181" priority="51" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G87))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="44" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="180" priority="52" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G87)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="50" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="49" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:I14">
-    <cfRule type="notContainsText" dxfId="169" priority="119" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="177" priority="127" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G6))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="125" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="126" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="120" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="174" priority="128" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:J20 H21:I26">
-    <cfRule type="containsText" dxfId="165" priority="238" operator="containsText" text="Mesmo">
+    <cfRule type="containsText" dxfId="173" priority="246" operator="containsText" text="Mesmo">
       <formula>NOT(ISERROR(SEARCH("Mesmo",H20)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="164" priority="240" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="172" priority="248" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",H20))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="241" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="171" priority="249" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:J32 H33:I35">
-    <cfRule type="containsText" dxfId="162" priority="228" operator="containsText" text="Mesmo">
+    <cfRule type="containsText" dxfId="170" priority="236" operator="containsText" text="Mesmo">
       <formula>NOT(ISERROR(SEARCH("Mesmo",H32)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="161" priority="229" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="169" priority="237" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",H32))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="230" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="168" priority="238" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="159" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="121" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="122" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="157" priority="115" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="165" priority="123" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",J6))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="116" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="164" priority="124" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" dxfId="155" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="69" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="154" priority="63" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="162" priority="71" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K41))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="64" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="161" priority="72" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="70" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="notContainsText" dxfId="151" priority="187" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="159" priority="195" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K52))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="193" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="188" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="157" priority="196" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K52)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="194" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="containsText" dxfId="147" priority="16" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="155" priority="24" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="21" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="144" priority="15" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="152" priority="23" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K60))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:K70">
-    <cfRule type="cellIs" dxfId="143" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="174" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="173" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="168" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="149" priority="176" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K68)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="140" priority="167" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="148" priority="175" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K68))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K87:K89">
-    <cfRule type="notContainsText" dxfId="139" priority="127" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="147" priority="135" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K87))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="128" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="146" priority="136" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K87)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="133" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="134" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:M14">
-    <cfRule type="cellIs" dxfId="135" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="114" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="115" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="133" priority="108" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="141" priority="116" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K6))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="109" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="140" priority="117" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:M26">
-    <cfRule type="cellIs" dxfId="131" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="326" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="327" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="129" priority="320" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="137" priority="328" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K20))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="321" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="136" priority="329" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:M35 O32:Q35">
-    <cfRule type="notContainsText" dxfId="127" priority="280" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="135" priority="288" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K32))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:M35">
-    <cfRule type="cellIs" dxfId="126" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="286" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="287" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:N32">
-    <cfRule type="containsText" dxfId="124" priority="413" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="132" priority="421" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="360" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="361" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="121" priority="412" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="129" priority="420" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K32))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsText" dxfId="120" priority="105" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="128" priority="113" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="110" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="118" priority="104" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="126" priority="112" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N6))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="111" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="notContainsText" dxfId="116" priority="316" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="124" priority="324" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N20))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="322" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="323" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="317" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="121" priority="325" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="containsText" dxfId="112" priority="415" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="120" priority="423" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N32)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="111" priority="414" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="119" priority="422" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N32))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:R41 O42:Q46">
-    <cfRule type="containsText" dxfId="110" priority="60" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="118" priority="68" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:V41">
-    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="9" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52:V52">
-    <cfRule type="containsText" dxfId="107" priority="184" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="115" priority="192" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N52)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="106" priority="183" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="114" priority="191" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N52))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="190" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="189" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:V60">
-    <cfRule type="cellIs" dxfId="103" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="17" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="110" priority="20" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N60)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="101" priority="11" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="109" priority="19" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N60))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N68:V70">
-    <cfRule type="containsText" dxfId="99" priority="164" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="107" priority="172" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N68)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="169" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="170" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="96" priority="163" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="104" priority="171" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N68))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N87:V89">
-    <cfRule type="cellIs" dxfId="95" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="130" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="94" priority="123" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="102" priority="131" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N87))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="124" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="101" priority="132" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N87)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="129" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O14">
-    <cfRule type="containsText" dxfId="91" priority="40" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="99" priority="48" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",O6)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="90" priority="39" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="98" priority="47" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O6))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="45" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="46" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:Q26">
-    <cfRule type="containsText" dxfId="87" priority="313" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="95" priority="321" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",O20)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="86" priority="312" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="94" priority="320" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O20))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="319" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="318" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q35 K33:M35">
-    <cfRule type="containsText" dxfId="83" priority="281" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="91" priority="289" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q35">
-    <cfRule type="cellIs" dxfId="82" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="284" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="285" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42:Q46 N41:R41">
-    <cfRule type="notContainsText" dxfId="80" priority="59" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="88" priority="67" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N41))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42:Q46">
-    <cfRule type="cellIs" dxfId="79" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="65" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="66" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O53:Q54">
-    <cfRule type="containsText" dxfId="77" priority="200" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="85" priority="208" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",O53)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="76" priority="199" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="84" priority="207" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O53))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="206" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="205" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O61:Q62">
-    <cfRule type="notContainsText" dxfId="73" priority="27" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="81" priority="35" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O61))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="28" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="80" priority="36" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",O61)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="33" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="34" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O71:Q72">
-    <cfRule type="cellIs" dxfId="69" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="186" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="185" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="67" priority="179" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="75" priority="187" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O71))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="180" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="74" priority="188" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",O71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O80:Q81">
-    <cfRule type="notContainsText" dxfId="65" priority="159" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="73" priority="167" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O80))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="165" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="166" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="160" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="70" priority="168" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",O80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O90:Q91">
-    <cfRule type="containsText" dxfId="61" priority="140" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="69" priority="148" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",O90)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="60" priority="139" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="68" priority="147" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O90))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="145" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="146" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="notContainsText" dxfId="57" priority="111" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",P6))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="110" operator="containsText" text="Administrador">
-      <formula>NOT(ISERROR(SEARCH("Administrador",P6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="112" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",P6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="containsText" dxfId="54" priority="309" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="62" priority="317" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",R20)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="53" priority="308" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="61" priority="316" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",R20))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="315" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="314" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32">
-    <cfRule type="containsText" dxfId="50" priority="345" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="58" priority="353" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",R32)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="49" priority="344" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="57" priority="352" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",R32))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="350" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="351" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6">
-    <cfRule type="containsText" dxfId="46" priority="101" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="54" priority="109" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="99" operator="containsText" text="Administrador">
+    <cfRule type="containsText" dxfId="53" priority="107" operator="containsText" text="Administrador">
       <formula>NOT(ISERROR(SEARCH("Administrador",S6)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="44" priority="100" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="52" priority="108" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="containsText" dxfId="43" priority="235" operator="containsText" text="Mesmo">
+    <cfRule type="containsText" dxfId="51" priority="243" operator="containsText" text="Mesmo">
       <formula>NOT(ISERROR(SEARCH("Mesmo",S20)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="42" priority="236" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="50" priority="244" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S20))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="237" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="49" priority="245" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32">
-    <cfRule type="containsText" dxfId="40" priority="213" operator="containsText" text="Mesmo">
+    <cfRule type="containsText" dxfId="48" priority="221" operator="containsText" text="Mesmo">
       <formula>NOT(ISERROR(SEARCH("Mesmo",S32)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="39" priority="214" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="47" priority="222" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S32))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="215" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="46" priority="223" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41:U41 U41:U46 S42:T46">
-    <cfRule type="containsText" dxfId="37" priority="68" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="45" priority="76" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S41)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="36" priority="67" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="44" priority="75" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S41))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:U54">
-    <cfRule type="containsText" dxfId="35" priority="192" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="43" priority="200" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S53)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="197" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="198" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="32" priority="191" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="40" priority="199" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S53))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S61:U62">
-    <cfRule type="notContainsText" dxfId="31" priority="19" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="39" priority="27" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S61))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="25" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="36" priority="28" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S71:U72">
-    <cfRule type="cellIs" dxfId="27" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="178" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="172" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="34" priority="180" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S71)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="25" priority="171" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="33" priority="179" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S71))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="177" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S80:U81">
-    <cfRule type="cellIs" dxfId="23" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="158" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="22" priority="151" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="30" priority="159" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S80))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="152" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="29" priority="160" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S80)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="157" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S90:U91">
-    <cfRule type="notContainsText" dxfId="19" priority="131" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="27" priority="139" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S90))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="138" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="137" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="132" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="24" priority="140" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41:U46 S42:T46">
-    <cfRule type="cellIs" dxfId="15" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="74" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="73" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="13" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="103" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="12" priority="97" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="20" priority="105" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",V6))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="104" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="98" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="18" priority="106" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",V6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="9" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="239" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="234" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="16" priority="242" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",V20)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="7" priority="233" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="15" priority="241" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",V20))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="240" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="cellIs" dxfId="5" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="228" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="4" priority="222" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="12" priority="230" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",V32))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="223" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="11" priority="231" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",V32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="229" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V41">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",V41)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="0" priority="3" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="8" priority="11" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",V41))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:Q14">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="5" priority="7" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",P6))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",P6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="1" priority="3" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",R6))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",R6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7378,33 +7477,33 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="15" t="s">
         <v>77</v>
       </c>
@@ -7416,14 +7515,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87289aac-3191-415d-94b6-004c2ae78a31" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BDF39B024F04A14486BA613BEA42AFF1" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5986e6510f5042a6e15da83068074cc6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87289aac-3191-415d-94b6-004c2ae78a31" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c206dcc707f643c7db63c115c073023" ns3:_="">
     <xsd:import namespace="87289aac-3191-415d-94b6-004c2ae78a31"/>
@@ -7605,6 +7696,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87289aac-3191-415d-94b6-004c2ae78a31" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7615,22 +7714,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3D8F92-D917-48F2-8DCD-36DF7B2B8540}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87289aac-3191-415d-94b6-004c2ae78a31"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4955B737-BB7F-4B2E-B1C9-6EDED895594F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7648,6 +7731,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3D8F92-D917-48F2-8DCD-36DF7B2B8540}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87289aac-3191-415d-94b6-004c2ae78a31"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51F5C3A-407A-48AB-8FE8-F11F29C95185}">
   <ds:schemaRefs>

--- a/Tabela de Permissões/permission's table.xlsx
+++ b/Tabela de Permissões/permission's table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baymetrics-my.sharepoint.com/personal/erick_barbosa_baymetrics_com_br/Documents/Documentos/Projetos/Repositorios/SysLab/Tabela de Permissões/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{2DB2CC27-1B57-4AEC-A5AB-4A51834076D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFD181BA-EF44-451F-8FA0-FC8DBD8568A4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{2DB2CC27-1B57-4AEC-A5AB-4A51834076D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2A500D4-9A35-43F7-BF45-6616C01AAF66}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,25 +886,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -934,16 +934,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -952,23 +958,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="256">
+  <dxfs count="249">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -979,6 +993,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -993,6 +1021,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1007,6 +1049,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1021,6 +1070,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1028,6 +1084,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1035,6 +1105,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1042,6 +1126,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0CBF5"/>
         </patternFill>
       </fill>
@@ -1056,6 +1147,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1063,6 +1168,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1070,6 +1196,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0CBF5"/>
         </patternFill>
       </fill>
@@ -1077,6 +1217,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1084,6 +1238,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1091,6 +1259,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1098,6 +1315,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1119,6 +1343,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1126,6 +1357,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1140,6 +1385,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1147,6 +1413,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1154,6 +1427,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0CBF5"/>
         </patternFill>
       </fill>
@@ -1161,6 +1462,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1168,6 +1483,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1175,6 +1525,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1182,6 +1567,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1189,6 +1588,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0CBF5"/>
         </patternFill>
       </fill>
@@ -1196,6 +1609,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1203,6 +1630,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1210,6 +1644,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1217,6 +1658,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0CBF5"/>
         </patternFill>
       </fill>
@@ -1231,6 +1686,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1252,6 +1714,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1259,6 +1770,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0CBF5"/>
         </patternFill>
       </fill>
@@ -1273,6 +1791,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1280,6 +1826,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1287,6 +1840,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1294,6 +1882,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1308,6 +1938,174 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1315,6 +2113,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1336,6 +2141,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1343,7 +2155,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1357,6 +2183,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0CBF5"/>
         </patternFill>
       </fill>
@@ -1364,6 +2197,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1371,6 +2225,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1378,6 +2253,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1385,6 +2281,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1392,6 +2295,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0CBF5"/>
         </patternFill>
       </fill>
@@ -1399,6 +2330,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1406,6 +2351,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1413,6 +2393,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1420,7 +2407,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1434,6 +2428,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0CBF5"/>
         </patternFill>
       </fill>
@@ -1441,6 +2442,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1448,6 +2463,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1455,6 +2484,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1462,6 +2505,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1469,6 +2540,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0CBF5"/>
         </patternFill>
       </fill>
@@ -1476,6 +2568,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1483,6 +2596,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1490,6 +2624,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1497,6 +2659,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
@@ -1504,6 +2673,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE0CBF5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1511,6 +2687,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE0CBF5"/>
         </patternFill>
       </fill>
@@ -1518,14 +2701,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1533,1231 +2709,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0CBF5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3049,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="S60" sqref="S60:S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3082,57 +3033,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="23"/>
-      <c r="X2" s="27" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="39"/>
+      <c r="X2" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="26"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="42"/>
       <c r="X3" s="13" t="s">
         <v>52</v>
       </c>
@@ -3147,36 +3098,36 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="43" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="43" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="43" t="s">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="43" t="s">
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="45"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="27"/>
       <c r="X4" s="16" t="s">
         <v>78</v>
       </c>
@@ -3268,27 +3219,27 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="37"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="37"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="37"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="37"/>
+      <c r="R6" s="21"/>
       <c r="S6" s="28" t="s">
         <v>26</v>
       </c>
       <c r="T6" s="29"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="40" t="s">
+      <c r="V6" s="24" t="s">
         <v>19</v>
       </c>
       <c r="X6" s="12" t="s">
@@ -3310,13 +3261,13 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="38"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="6" t="s">
         <v>19</v>
       </c>
@@ -3324,7 +3275,7 @@
         <v>31</v>
       </c>
       <c r="M7" s="6"/>
-      <c r="N7" s="38"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="6" t="s">
         <v>19</v>
       </c>
@@ -3332,11 +3283,11 @@
         <v>31</v>
       </c>
       <c r="Q7" s="6"/>
-      <c r="R7" s="38"/>
+      <c r="R7" s="22"/>
       <c r="S7" s="31"/>
       <c r="T7" s="32"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="38"/>
+      <c r="V7" s="22"/>
       <c r="X7" s="12" t="s">
         <v>80</v>
       </c>
@@ -3356,13 +3307,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="38"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="6" t="s">
         <v>19</v>
       </c>
@@ -3372,7 +3323,7 @@
       <c r="M8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="38"/>
+      <c r="N8" s="22"/>
       <c r="O8" s="6" t="s">
         <v>19</v>
       </c>
@@ -3380,11 +3331,11 @@
         <v>19</v>
       </c>
       <c r="Q8" s="6"/>
-      <c r="R8" s="38"/>
+      <c r="R8" s="22"/>
       <c r="S8" s="31"/>
       <c r="T8" s="32"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="38"/>
+      <c r="V8" s="22"/>
       <c r="X8" s="12" t="s">
         <v>81</v>
       </c>
@@ -3404,13 +3355,13 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="38"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="6" t="s">
         <v>19</v>
       </c>
@@ -3420,7 +3371,7 @@
       <c r="M9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="38"/>
+      <c r="N9" s="22"/>
       <c r="O9" s="6" t="s">
         <v>19</v>
       </c>
@@ -3430,11 +3381,11 @@
       <c r="Q9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="38"/>
+      <c r="R9" s="22"/>
       <c r="S9" s="31"/>
       <c r="T9" s="32"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="38"/>
+      <c r="V9" s="22"/>
       <c r="X9" s="12" t="s">
         <v>62</v>
       </c>
@@ -3454,7 +3405,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="6" t="s">
         <v>19</v>
       </c>
@@ -3462,7 +3413,7 @@
         <v>19</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="38"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="6" t="s">
         <v>19</v>
       </c>
@@ -3472,7 +3423,7 @@
       <c r="M10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="38"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="6" t="s">
         <v>19</v>
       </c>
@@ -3482,11 +3433,11 @@
       <c r="Q10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="38"/>
+      <c r="R10" s="22"/>
       <c r="S10" s="31"/>
       <c r="T10" s="32"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="38"/>
+      <c r="V10" s="22"/>
       <c r="X10" s="12" t="s">
         <v>63</v>
       </c>
@@ -3506,7 +3457,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="38"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3514,7 +3465,7 @@
         <v>19</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="38"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3524,7 +3475,7 @@
       <c r="M11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="38"/>
+      <c r="N11" s="22"/>
       <c r="O11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3534,11 +3485,11 @@
       <c r="Q11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="38"/>
+      <c r="R11" s="22"/>
       <c r="S11" s="31"/>
       <c r="T11" s="32"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="38"/>
+      <c r="V11" s="22"/>
       <c r="X11" s="12" t="s">
         <v>64</v>
       </c>
@@ -3558,13 +3509,13 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="38"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="6" t="s">
         <v>19</v>
       </c>
@@ -3574,7 +3525,7 @@
       <c r="M12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="38"/>
+      <c r="N12" s="22"/>
       <c r="O12" s="6" t="s">
         <v>19</v>
       </c>
@@ -3584,11 +3535,11 @@
       <c r="Q12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="38"/>
+      <c r="R12" s="22"/>
       <c r="S12" s="31"/>
       <c r="T12" s="32"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="38"/>
+      <c r="V12" s="22"/>
       <c r="X12" s="12" t="s">
         <v>65</v>
       </c>
@@ -3608,13 +3559,13 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="38"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="6" t="s">
         <v>19</v>
       </c>
@@ -3624,7 +3575,7 @@
       <c r="M13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="38"/>
+      <c r="N13" s="22"/>
       <c r="O13" s="6" t="s">
         <v>19</v>
       </c>
@@ -3634,11 +3585,11 @@
       <c r="Q13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="38"/>
+      <c r="R13" s="22"/>
       <c r="S13" s="31"/>
       <c r="T13" s="32"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="38"/>
+      <c r="V13" s="22"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
@@ -3649,13 +3600,13 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="39"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="39"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="6" t="s">
         <v>19</v>
       </c>
@@ -3665,7 +3616,7 @@
       <c r="M14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="39"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6" t="s">
         <v>30</v>
@@ -3673,64 +3624,64 @@
       <c r="Q14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="39"/>
+      <c r="R14" s="23"/>
       <c r="S14" s="34"/>
       <c r="T14" s="35"/>
       <c r="U14" s="36"/>
-      <c r="V14" s="39"/>
+      <c r="V14" s="23"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="23"/>
-      <c r="X16" s="43" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
+      <c r="X16" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="45"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="26"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="42"/>
       <c r="X17" s="13" t="s">
         <v>52</v>
       </c>
@@ -3742,39 +3693,39 @@
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="43" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="43" t="s">
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="27" t="s">
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27" t="s">
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
       <c r="X18" s="12" t="s">
         <v>82</v>
       </c>
@@ -3786,7 +3737,7 @@
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B19" s="41"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
@@ -3864,29 +3815,29 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="37"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="12"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="37"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="37"/>
+      <c r="N20" s="21"/>
       <c r="O20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
-      <c r="R20" s="37"/>
+      <c r="R20" s="21"/>
       <c r="S20" s="28" t="s">
         <v>26</v>
       </c>
       <c r="T20" s="29"/>
       <c r="U20" s="30"/>
-      <c r="V20" s="40" t="s">
+      <c r="V20" s="24" t="s">
         <v>19</v>
       </c>
       <c r="X20" s="12" t="s">
@@ -3906,19 +3857,19 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="38"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="38"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="38"/>
+      <c r="N21" s="22"/>
       <c r="O21" s="6" t="s">
         <v>19</v>
       </c>
@@ -3928,11 +3879,11 @@
       <c r="Q21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="38"/>
+      <c r="R21" s="22"/>
       <c r="S21" s="31"/>
       <c r="T21" s="32"/>
       <c r="U21" s="33"/>
-      <c r="V21" s="40"/>
+      <c r="V21" s="24"/>
       <c r="X21" s="12" t="s">
         <v>66</v>
       </c>
@@ -3950,19 +3901,19 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="38"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="38"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="38"/>
+      <c r="N22" s="22"/>
       <c r="O22" s="6" t="s">
         <v>19</v>
       </c>
@@ -3972,11 +3923,11 @@
       <c r="Q22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="38"/>
+      <c r="R22" s="22"/>
       <c r="S22" s="31"/>
       <c r="T22" s="32"/>
       <c r="U22" s="33"/>
-      <c r="V22" s="40"/>
+      <c r="V22" s="24"/>
       <c r="X22" s="12" t="s">
         <v>67</v>
       </c>
@@ -3994,19 +3945,19 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="38"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="38"/>
+      <c r="N23" s="22"/>
       <c r="O23" s="6" t="s">
         <v>19</v>
       </c>
@@ -4016,11 +3967,11 @@
       <c r="Q23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R23" s="38"/>
+      <c r="R23" s="22"/>
       <c r="S23" s="31"/>
       <c r="T23" s="32"/>
       <c r="U23" s="33"/>
-      <c r="V23" s="40"/>
+      <c r="V23" s="24"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
@@ -4029,19 +3980,19 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="38"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="38"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="38"/>
+      <c r="N24" s="22"/>
       <c r="O24" s="6" t="s">
         <v>19</v>
       </c>
@@ -4051,11 +4002,11 @@
       <c r="Q24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R24" s="38"/>
+      <c r="R24" s="22"/>
       <c r="S24" s="31"/>
       <c r="T24" s="32"/>
       <c r="U24" s="33"/>
-      <c r="V24" s="40"/>
+      <c r="V24" s="24"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
@@ -4064,19 +4015,19 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="38"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="38"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="38"/>
+      <c r="N25" s="22"/>
       <c r="O25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4086,11 +4037,11 @@
       <c r="Q25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R25" s="38"/>
+      <c r="R25" s="22"/>
       <c r="S25" s="31"/>
       <c r="T25" s="32"/>
       <c r="U25" s="33"/>
-      <c r="V25" s="40"/>
+      <c r="V25" s="24"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
@@ -4099,19 +4050,19 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="39"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="39"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="39"/>
+      <c r="N26" s="23"/>
       <c r="O26" s="6" t="s">
         <v>19</v>
       </c>
@@ -4121,64 +4072,64 @@
       <c r="Q26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R26" s="39"/>
+      <c r="R26" s="23"/>
       <c r="S26" s="34"/>
       <c r="T26" s="35"/>
       <c r="U26" s="36"/>
-      <c r="V26" s="40"/>
+      <c r="V26" s="24"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="23"/>
-      <c r="X28" s="43" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="39"/>
+      <c r="X28" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="45"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="27"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="26"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="42"/>
       <c r="X29" s="13" t="s">
         <v>52</v>
       </c>
@@ -4190,39 +4141,39 @@
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="27" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="43" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="27" t="s">
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27" t="s">
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
       <c r="X30" s="12" t="s">
         <v>85</v>
       </c>
@@ -4234,7 +4185,7 @@
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B31" s="41"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="3" t="s">
         <v>6</v>
       </c>
@@ -4312,29 +4263,29 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="37"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="37"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="37"/>
+      <c r="N32" s="21"/>
       <c r="O32" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="40" t="s">
+      <c r="R32" s="21"/>
+      <c r="S32" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="37" t="s">
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="21" t="s">
         <v>19</v>
       </c>
       <c r="X32" s="12" t="s">
@@ -4354,19 +4305,19 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="38"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="38"/>
+      <c r="J33" s="22"/>
       <c r="K33" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="38"/>
+      <c r="N33" s="22"/>
       <c r="O33" s="6" t="s">
         <v>19</v>
       </c>
@@ -4376,11 +4327,11 @@
       <c r="Q33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R33" s="38"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="38"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="22"/>
       <c r="X33" s="12" t="s">
         <v>68</v>
       </c>
@@ -4398,19 +4349,19 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="38"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="38"/>
+      <c r="J34" s="22"/>
       <c r="K34" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="38"/>
+      <c r="N34" s="22"/>
       <c r="O34" s="6" t="s">
         <v>19</v>
       </c>
@@ -4420,11 +4371,11 @@
       <c r="Q34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R34" s="38"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="38"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="22"/>
       <c r="X34" s="12" t="s">
         <v>69</v>
       </c>
@@ -4442,19 +4393,19 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="39"/>
+      <c r="F35" s="23"/>
       <c r="G35" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="39"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="39"/>
+      <c r="N35" s="23"/>
       <c r="O35" s="6" t="s">
         <v>19</v>
       </c>
@@ -4464,64 +4415,64 @@
       <c r="Q35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="39"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="39"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="23"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="23"/>
-      <c r="X37" s="43" t="s">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="39"/>
+      <c r="X37" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="45"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="27"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="26"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="42"/>
       <c r="X38" s="13" t="s">
         <v>52</v>
       </c>
@@ -4533,39 +4484,39 @@
       </c>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="43" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="43" t="s">
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="43" t="s">
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="43" t="s">
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="45"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="27"/>
       <c r="X39" s="12" t="s">
         <v>88</v>
       </c>
@@ -4577,7 +4528,7 @@
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B40" s="42"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="3" t="s">
         <v>6</v>
       </c>
@@ -4652,24 +4603,24 @@
       <c r="B41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40" t="s">
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="28" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="29"/>
       <c r="M41" s="30"/>
-      <c r="N41" s="40" t="s">
+      <c r="N41" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O41" s="6" t="s">
@@ -4677,13 +4628,13 @@
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="37"/>
+      <c r="R41" s="21"/>
       <c r="S41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="T41" s="6"/>
       <c r="U41" s="7"/>
-      <c r="V41" s="37"/>
+      <c r="V41" s="21"/>
       <c r="X41" s="12" t="s">
         <v>70</v>
       </c>
@@ -4698,24 +4649,24 @@
       <c r="B42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
       <c r="K42" s="31"/>
       <c r="L42" s="32"/>
       <c r="M42" s="33"/>
-      <c r="N42" s="40"/>
+      <c r="N42" s="24"/>
       <c r="O42" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="38"/>
+      <c r="R42" s="22"/>
       <c r="S42" s="6" t="s">
         <v>19</v>
       </c>
@@ -4723,30 +4674,30 @@
         <v>19</v>
       </c>
       <c r="U42" s="7"/>
-      <c r="V42" s="38"/>
+      <c r="V42" s="22"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
       <c r="K43" s="31"/>
       <c r="L43" s="32"/>
       <c r="M43" s="33"/>
-      <c r="N43" s="40"/>
+      <c r="N43" s="24"/>
       <c r="O43" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="38"/>
+      <c r="R43" s="22"/>
       <c r="S43" s="6" t="s">
         <v>19</v>
       </c>
@@ -4754,30 +4705,30 @@
         <v>19</v>
       </c>
       <c r="U43" s="7"/>
-      <c r="V43" s="38"/>
+      <c r="V43" s="22"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="31"/>
       <c r="L44" s="32"/>
       <c r="M44" s="33"/>
-      <c r="N44" s="40"/>
+      <c r="N44" s="24"/>
       <c r="O44" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="38"/>
+      <c r="R44" s="22"/>
       <c r="S44" s="6" t="s">
         <v>19</v>
       </c>
@@ -4785,30 +4736,30 @@
         <v>19</v>
       </c>
       <c r="U44" s="7"/>
-      <c r="V44" s="38"/>
+      <c r="V44" s="22"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B45" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
       <c r="K45" s="31"/>
       <c r="L45" s="32"/>
       <c r="M45" s="33"/>
-      <c r="N45" s="40"/>
+      <c r="N45" s="24"/>
       <c r="O45" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="38"/>
+      <c r="R45" s="22"/>
       <c r="S45" s="6" t="s">
         <v>19</v>
       </c>
@@ -4816,30 +4767,30 @@
         <v>19</v>
       </c>
       <c r="U45" s="7"/>
-      <c r="V45" s="38"/>
+      <c r="V45" s="22"/>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
       <c r="K46" s="34"/>
       <c r="L46" s="35"/>
       <c r="M46" s="36"/>
-      <c r="N46" s="40"/>
+      <c r="N46" s="24"/>
       <c r="O46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="39"/>
+      <c r="R46" s="23"/>
       <c r="S46" s="6" t="s">
         <v>19</v>
       </c>
@@ -4847,60 +4798,60 @@
         <v>30</v>
       </c>
       <c r="U46" s="7"/>
-      <c r="V46" s="39"/>
+      <c r="V46" s="23"/>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="23"/>
-      <c r="X48" s="43" t="s">
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="39"/>
+      <c r="X48" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="45"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="27"/>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="26"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="42"/>
       <c r="X49" s="13" t="s">
         <v>52</v>
       </c>
@@ -4912,39 +4863,39 @@
       </c>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="43" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="43" t="s">
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="43" t="s">
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="43" t="s">
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="45"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="27"/>
       <c r="X50" s="12" t="s">
         <v>90</v>
       </c>
@@ -4956,7 +4907,7 @@
       </c>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B51" s="42"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="3" t="s">
         <v>6</v>
       </c>
@@ -5048,7 +4999,7 @@
       </c>
       <c r="L52" s="29"/>
       <c r="M52" s="30"/>
-      <c r="N52" s="37" t="s">
+      <c r="N52" s="21" t="s">
         <v>19</v>
       </c>
       <c r="O52" s="12" t="s">
@@ -5056,13 +5007,13 @@
       </c>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
-      <c r="R52" s="37"/>
+      <c r="R52" s="21"/>
       <c r="S52" s="12" t="s">
         <v>19</v>
       </c>
       <c r="T52" s="12"/>
       <c r="U52" s="8"/>
-      <c r="V52" s="40"/>
+      <c r="V52" s="24"/>
       <c r="X52" s="12" t="s">
         <v>71</v>
       </c>
@@ -5088,13 +5039,13 @@
       <c r="K53" s="31"/>
       <c r="L53" s="32"/>
       <c r="M53" s="33"/>
-      <c r="N53" s="38"/>
+      <c r="N53" s="22"/>
       <c r="O53" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
-      <c r="R53" s="38"/>
+      <c r="R53" s="22"/>
       <c r="S53" s="12" t="s">
         <v>19</v>
       </c>
@@ -5102,7 +5053,7 @@
         <v>19</v>
       </c>
       <c r="U53" s="8"/>
-      <c r="V53" s="40"/>
+      <c r="V53" s="24"/>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B54" s="5" t="s">
@@ -5119,13 +5070,13 @@
       <c r="K54" s="34"/>
       <c r="L54" s="35"/>
       <c r="M54" s="36"/>
-      <c r="N54" s="39"/>
+      <c r="N54" s="23"/>
       <c r="O54" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
-      <c r="R54" s="39"/>
+      <c r="R54" s="23"/>
       <c r="S54" s="12" t="s">
         <v>19</v>
       </c>
@@ -5133,60 +5084,60 @@
         <v>31</v>
       </c>
       <c r="U54" s="7"/>
-      <c r="V54" s="40"/>
+      <c r="V54" s="24"/>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="23"/>
-      <c r="X56" s="43" t="s">
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="39"/>
+      <c r="X56" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="45"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="27"/>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
-      <c r="V57" s="26"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="41"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="41"/>
+      <c r="V57" s="42"/>
       <c r="X57" s="13" t="s">
         <v>52</v>
       </c>
@@ -5198,39 +5149,39 @@
       </c>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="43" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="43" t="s">
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="43" t="s">
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="43" t="s">
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="T58" s="44"/>
-      <c r="U58" s="44"/>
-      <c r="V58" s="45"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="27"/>
       <c r="X58" s="12" t="s">
         <v>92</v>
       </c>
@@ -5242,7 +5193,7 @@
       </c>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B59" s="42"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="3" t="s">
         <v>6</v>
       </c>
@@ -5334,7 +5285,7 @@
       </c>
       <c r="L60" s="29"/>
       <c r="M60" s="30"/>
-      <c r="N60" s="37" t="s">
+      <c r="N60" s="21" t="s">
         <v>19</v>
       </c>
       <c r="O60" s="12" t="s">
@@ -5342,13 +5293,13 @@
       </c>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
-      <c r="R60" s="37"/>
+      <c r="R60" s="21"/>
       <c r="S60" s="12" t="s">
         <v>19</v>
       </c>
       <c r="T60" s="12"/>
       <c r="U60" s="8"/>
-      <c r="V60" s="40"/>
+      <c r="V60" s="24"/>
       <c r="X60" s="12" t="s">
         <v>73</v>
       </c>
@@ -5374,13 +5325,13 @@
       <c r="K61" s="31"/>
       <c r="L61" s="32"/>
       <c r="M61" s="33"/>
-      <c r="N61" s="38"/>
+      <c r="N61" s="22"/>
       <c r="O61" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
-      <c r="R61" s="38"/>
+      <c r="R61" s="22"/>
       <c r="S61" s="12" t="s">
         <v>19</v>
       </c>
@@ -5388,7 +5339,7 @@
         <v>19</v>
       </c>
       <c r="U61" s="8"/>
-      <c r="V61" s="40"/>
+      <c r="V61" s="24"/>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B62" s="5" t="s">
@@ -5405,74 +5356,74 @@
       <c r="K62" s="34"/>
       <c r="L62" s="35"/>
       <c r="M62" s="36"/>
-      <c r="N62" s="39"/>
+      <c r="N62" s="23"/>
       <c r="O62" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
-      <c r="R62" s="39"/>
+      <c r="R62" s="23"/>
       <c r="S62" s="12" t="s">
         <v>19</v>
       </c>
       <c r="T62" s="12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="U62" s="7"/>
-      <c r="V62" s="40"/>
+      <c r="V62" s="24"/>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="23"/>
-      <c r="X64" s="43" t="s">
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="39"/>
+      <c r="X64" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Y64" s="44"/>
-      <c r="Z64" s="45"/>
+      <c r="Y64" s="26"/>
+      <c r="Z64" s="27"/>
     </row>
     <row r="65" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="25"/>
-      <c r="U65" s="25"/>
-      <c r="V65" s="26"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="41"/>
+      <c r="U65" s="41"/>
+      <c r="V65" s="42"/>
       <c r="X65" s="13" t="s">
         <v>52</v>
       </c>
@@ -5484,39 +5435,39 @@
       </c>
     </row>
     <row r="66" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="43" t="s">
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="43" t="s">
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="45"/>
-      <c r="O66" s="43" t="s">
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="44"/>
-      <c r="R66" s="45"/>
-      <c r="S66" s="43" t="s">
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="T66" s="44"/>
-      <c r="U66" s="44"/>
-      <c r="V66" s="45"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="26"/>
+      <c r="V66" s="27"/>
       <c r="X66" s="12" t="s">
         <v>94</v>
       </c>
@@ -5528,7 +5479,7 @@
       </c>
     </row>
     <row r="67" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B67" s="42"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="3" t="s">
         <v>6</v>
       </c>
@@ -5620,7 +5571,7 @@
       </c>
       <c r="L68" s="29"/>
       <c r="M68" s="30"/>
-      <c r="N68" s="37" t="s">
+      <c r="N68" s="21" t="s">
         <v>19</v>
       </c>
       <c r="O68" s="12" t="s">
@@ -5628,13 +5579,13 @@
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
-      <c r="R68" s="37"/>
+      <c r="R68" s="21"/>
       <c r="S68" s="12" t="s">
         <v>19</v>
       </c>
       <c r="T68" s="12"/>
       <c r="U68" s="8"/>
-      <c r="V68" s="40"/>
+      <c r="V68" s="24"/>
       <c r="X68" s="12" t="s">
         <v>74</v>
       </c>
@@ -5660,13 +5611,13 @@
       <c r="K69" s="31"/>
       <c r="L69" s="32"/>
       <c r="M69" s="33"/>
-      <c r="N69" s="38"/>
+      <c r="N69" s="22"/>
       <c r="O69" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
-      <c r="R69" s="38"/>
+      <c r="R69" s="22"/>
       <c r="S69" s="12" t="s">
         <v>19</v>
       </c>
@@ -5674,7 +5625,7 @@
         <v>19</v>
       </c>
       <c r="U69" s="8"/>
-      <c r="V69" s="40"/>
+      <c r="V69" s="24"/>
     </row>
     <row r="70" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B70" s="5" t="s">
@@ -5691,13 +5642,13 @@
       <c r="K70" s="31"/>
       <c r="L70" s="32"/>
       <c r="M70" s="33"/>
-      <c r="N70" s="38"/>
+      <c r="N70" s="22"/>
       <c r="O70" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
-      <c r="R70" s="38"/>
+      <c r="R70" s="22"/>
       <c r="S70" s="12" t="s">
         <v>19</v>
       </c>
@@ -5705,7 +5656,7 @@
         <v>19</v>
       </c>
       <c r="U70" s="8"/>
-      <c r="V70" s="40"/>
+      <c r="V70" s="24"/>
     </row>
     <row r="71" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B71" s="5" t="s">
@@ -5722,13 +5673,13 @@
       <c r="K71" s="31"/>
       <c r="L71" s="32"/>
       <c r="M71" s="33"/>
-      <c r="N71" s="38"/>
+      <c r="N71" s="22"/>
       <c r="O71" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
-      <c r="R71" s="38"/>
+      <c r="R71" s="22"/>
       <c r="S71" s="12" t="s">
         <v>19</v>
       </c>
@@ -5736,7 +5687,7 @@
         <v>31</v>
       </c>
       <c r="U71" s="8"/>
-      <c r="V71" s="40"/>
+      <c r="V71" s="24"/>
     </row>
     <row r="72" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B72" s="5" t="s">
@@ -5753,13 +5704,13 @@
       <c r="K72" s="34"/>
       <c r="L72" s="35"/>
       <c r="M72" s="36"/>
-      <c r="N72" s="39"/>
+      <c r="N72" s="23"/>
       <c r="O72" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
-      <c r="R72" s="39"/>
+      <c r="R72" s="23"/>
       <c r="S72" s="12" t="s">
         <v>19</v>
       </c>
@@ -5767,60 +5718,60 @@
         <v>19</v>
       </c>
       <c r="U72" s="7"/>
-      <c r="V72" s="40"/>
+      <c r="V72" s="24"/>
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="U74" s="22"/>
-      <c r="V74" s="23"/>
-      <c r="X74" s="43" t="s">
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="39"/>
+      <c r="X74" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Y74" s="44"/>
-      <c r="Z74" s="45"/>
+      <c r="Y74" s="26"/>
+      <c r="Z74" s="27"/>
     </row>
     <row r="75" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="25"/>
-      <c r="S75" s="25"/>
-      <c r="T75" s="25"/>
-      <c r="U75" s="25"/>
-      <c r="V75" s="26"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="41"/>
+      <c r="T75" s="41"/>
+      <c r="U75" s="41"/>
+      <c r="V75" s="42"/>
       <c r="X75" s="13" t="s">
         <v>52</v>
       </c>
@@ -5832,39 +5783,39 @@
       </c>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="43" t="s">
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="43" t="s">
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L76" s="44"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="43" t="s">
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="45"/>
-      <c r="S76" s="43" t="s">
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="T76" s="44"/>
-      <c r="U76" s="44"/>
-      <c r="V76" s="45"/>
+      <c r="T76" s="26"/>
+      <c r="U76" s="26"/>
+      <c r="V76" s="27"/>
       <c r="X76" s="12" t="s">
         <v>96</v>
       </c>
@@ -5876,7 +5827,7 @@
       </c>
     </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B77" s="42"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="3" t="s">
         <v>6</v>
       </c>
@@ -5968,7 +5919,7 @@
       </c>
       <c r="L78" s="29"/>
       <c r="M78" s="30"/>
-      <c r="N78" s="37" t="s">
+      <c r="N78" s="21" t="s">
         <v>19</v>
       </c>
       <c r="O78" s="12" t="s">
@@ -5976,13 +5927,13 @@
       </c>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
-      <c r="R78" s="37"/>
+      <c r="R78" s="21"/>
       <c r="S78" s="12" t="s">
         <v>19</v>
       </c>
       <c r="T78" s="12"/>
       <c r="U78" s="8"/>
-      <c r="V78" s="40"/>
+      <c r="V78" s="24"/>
       <c r="X78" s="12" t="s">
         <v>75</v>
       </c>
@@ -6008,13 +5959,13 @@
       <c r="K79" s="31"/>
       <c r="L79" s="32"/>
       <c r="M79" s="33"/>
-      <c r="N79" s="38"/>
+      <c r="N79" s="22"/>
       <c r="O79" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
-      <c r="R79" s="38"/>
+      <c r="R79" s="22"/>
       <c r="S79" s="12" t="s">
         <v>19</v>
       </c>
@@ -6022,7 +5973,7 @@
         <v>19</v>
       </c>
       <c r="U79" s="8"/>
-      <c r="V79" s="40"/>
+      <c r="V79" s="24"/>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B80" s="5" t="s">
@@ -6039,13 +5990,13 @@
       <c r="K80" s="31"/>
       <c r="L80" s="32"/>
       <c r="M80" s="33"/>
-      <c r="N80" s="38"/>
+      <c r="N80" s="22"/>
       <c r="O80" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
-      <c r="R80" s="38"/>
+      <c r="R80" s="22"/>
       <c r="S80" s="12" t="s">
         <v>19</v>
       </c>
@@ -6053,7 +6004,7 @@
         <v>31</v>
       </c>
       <c r="U80" s="8"/>
-      <c r="V80" s="40"/>
+      <c r="V80" s="24"/>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B81" s="5" t="s">
@@ -6070,13 +6021,13 @@
       <c r="K81" s="34"/>
       <c r="L81" s="35"/>
       <c r="M81" s="36"/>
-      <c r="N81" s="39"/>
+      <c r="N81" s="23"/>
       <c r="O81" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
-      <c r="R81" s="39"/>
+      <c r="R81" s="23"/>
       <c r="S81" s="12" t="s">
         <v>19</v>
       </c>
@@ -6084,60 +6035,60 @@
         <v>19</v>
       </c>
       <c r="U81" s="7"/>
-      <c r="V81" s="40"/>
+      <c r="V81" s="24"/>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
-      <c r="V83" s="23"/>
-      <c r="X83" s="43" t="s">
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="38"/>
+      <c r="V83" s="39"/>
+      <c r="X83" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Y83" s="44"/>
-      <c r="Z83" s="45"/>
+      <c r="Y83" s="26"/>
+      <c r="Z83" s="27"/>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="25"/>
-      <c r="S84" s="25"/>
-      <c r="T84" s="25"/>
-      <c r="U84" s="25"/>
-      <c r="V84" s="26"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="41"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="41"/>
+      <c r="T84" s="41"/>
+      <c r="U84" s="41"/>
+      <c r="V84" s="42"/>
       <c r="X84" s="13" t="s">
         <v>52</v>
       </c>
@@ -6149,39 +6100,39 @@
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="43" t="s">
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="45"/>
-      <c r="K85" s="43" t="s">
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="45"/>
-      <c r="O85" s="43" t="s">
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="P85" s="44"/>
-      <c r="Q85" s="44"/>
-      <c r="R85" s="45"/>
-      <c r="S85" s="43" t="s">
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="27"/>
+      <c r="S85" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="T85" s="44"/>
-      <c r="U85" s="44"/>
-      <c r="V85" s="45"/>
+      <c r="T85" s="26"/>
+      <c r="U85" s="26"/>
+      <c r="V85" s="27"/>
       <c r="X85" s="12" t="s">
         <v>98</v>
       </c>
@@ -6193,7 +6144,7 @@
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B86" s="42"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="3" t="s">
         <v>6</v>
       </c>
@@ -6285,7 +6236,7 @@
       </c>
       <c r="L87" s="29"/>
       <c r="M87" s="30"/>
-      <c r="N87" s="37" t="s">
+      <c r="N87" s="21" t="s">
         <v>19</v>
       </c>
       <c r="O87" s="12" t="s">
@@ -6293,13 +6244,13 @@
       </c>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
-      <c r="R87" s="37"/>
+      <c r="R87" s="21"/>
       <c r="S87" s="12" t="s">
         <v>19</v>
       </c>
       <c r="T87" s="12"/>
       <c r="U87" s="8"/>
-      <c r="V87" s="40"/>
+      <c r="V87" s="24"/>
       <c r="X87" s="12" t="s">
         <v>76</v>
       </c>
@@ -6325,13 +6276,13 @@
       <c r="K88" s="31"/>
       <c r="L88" s="32"/>
       <c r="M88" s="33"/>
-      <c r="N88" s="38"/>
+      <c r="N88" s="22"/>
       <c r="O88" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
-      <c r="R88" s="38"/>
+      <c r="R88" s="22"/>
       <c r="S88" s="12" t="s">
         <v>19</v>
       </c>
@@ -6339,7 +6290,7 @@
         <v>19</v>
       </c>
       <c r="U88" s="8"/>
-      <c r="V88" s="40"/>
+      <c r="V88" s="24"/>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B89" s="5" t="s">
@@ -6356,13 +6307,13 @@
       <c r="K89" s="31"/>
       <c r="L89" s="32"/>
       <c r="M89" s="33"/>
-      <c r="N89" s="38"/>
+      <c r="N89" s="22"/>
       <c r="O89" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
-      <c r="R89" s="38"/>
+      <c r="R89" s="22"/>
       <c r="S89" s="12" t="s">
         <v>19</v>
       </c>
@@ -6370,7 +6321,7 @@
         <v>19</v>
       </c>
       <c r="U89" s="8"/>
-      <c r="V89" s="40"/>
+      <c r="V89" s="24"/>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B90" s="5" t="s">
@@ -6387,13 +6338,13 @@
       <c r="K90" s="31"/>
       <c r="L90" s="32"/>
       <c r="M90" s="33"/>
-      <c r="N90" s="38"/>
+      <c r="N90" s="22"/>
       <c r="O90" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
-      <c r="R90" s="38"/>
+      <c r="R90" s="22"/>
       <c r="S90" s="12" t="s">
         <v>19</v>
       </c>
@@ -6401,7 +6352,7 @@
         <v>19</v>
       </c>
       <c r="U90" s="8"/>
-      <c r="V90" s="40"/>
+      <c r="V90" s="24"/>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B91" s="5" t="s">
@@ -6418,13 +6369,13 @@
       <c r="K91" s="34"/>
       <c r="L91" s="35"/>
       <c r="M91" s="36"/>
-      <c r="N91" s="39"/>
+      <c r="N91" s="23"/>
       <c r="O91" s="12" t="s">
         <v>19</v>
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
-      <c r="R91" s="39"/>
+      <c r="R91" s="23"/>
       <c r="S91" s="12" t="s">
         <v>19</v>
       </c>
@@ -6432,10 +6383,111 @@
         <v>31</v>
       </c>
       <c r="U91" s="7"/>
-      <c r="V91" s="40"/>
+      <c r="V91" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="B2:V3"/>
+    <mergeCell ref="B16:V17"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="C87:F91"/>
+    <mergeCell ref="K87:M91"/>
+    <mergeCell ref="N87:N91"/>
+    <mergeCell ref="R87:R91"/>
+    <mergeCell ref="V87:V91"/>
+    <mergeCell ref="G87:J91"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="O85:R85"/>
+    <mergeCell ref="S85:V85"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="B83:V84"/>
+    <mergeCell ref="C78:F81"/>
+    <mergeCell ref="K78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="R78:R81"/>
+    <mergeCell ref="V78:V81"/>
+    <mergeCell ref="G78:J81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="O76:R76"/>
+    <mergeCell ref="S76:V76"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="B74:V75"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="N52:N54"/>
+    <mergeCell ref="C52:F54"/>
+    <mergeCell ref="K52:M54"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G41:J46"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G52:J54"/>
+    <mergeCell ref="B48:V49"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="V52:V54"/>
+    <mergeCell ref="R52:R54"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="R20:R26"/>
+    <mergeCell ref="N20:N26"/>
+    <mergeCell ref="S20:U26"/>
+    <mergeCell ref="V20:V26"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="J6:J14"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="N6:N14"/>
+    <mergeCell ref="F20:F26"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="F6:F14"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="S6:U14"/>
+    <mergeCell ref="V6:V14"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="B28:V29"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="C60:F62"/>
+    <mergeCell ref="G60:J62"/>
+    <mergeCell ref="K60:M62"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="N60:N62"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="B56:V57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="O58:R58"/>
+    <mergeCell ref="S58:V58"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="K41:M46"/>
+    <mergeCell ref="N41:N46"/>
+    <mergeCell ref="B37:V38"/>
+    <mergeCell ref="C41:F46"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="G30:J30"/>
     <mergeCell ref="R6:R14"/>
     <mergeCell ref="R60:R62"/>
     <mergeCell ref="V60:V62"/>
@@ -6460,1009 +6512,894 @@
     <mergeCell ref="V68:V72"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="B50:B51"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="B56:V57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="O58:R58"/>
-    <mergeCell ref="S58:V58"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="K41:M46"/>
-    <mergeCell ref="N41:N46"/>
-    <mergeCell ref="B37:V38"/>
-    <mergeCell ref="C41:F46"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="B28:V29"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="C60:F62"/>
-    <mergeCell ref="G60:J62"/>
-    <mergeCell ref="K60:M62"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="R20:R26"/>
-    <mergeCell ref="N20:N26"/>
-    <mergeCell ref="S20:U26"/>
-    <mergeCell ref="V20:V26"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="J6:J14"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="N6:N14"/>
-    <mergeCell ref="F20:F26"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="F6:F14"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="S6:U14"/>
-    <mergeCell ref="V6:V14"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="N60:N62"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="O76:R76"/>
-    <mergeCell ref="S76:V76"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="B74:V75"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="N52:N54"/>
-    <mergeCell ref="C52:F54"/>
-    <mergeCell ref="K52:M54"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G41:J46"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G52:J54"/>
-    <mergeCell ref="B48:V49"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="V52:V54"/>
-    <mergeCell ref="R52:R54"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="S50:V50"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="B2:V3"/>
-    <mergeCell ref="B16:V17"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="C87:F91"/>
-    <mergeCell ref="K87:M91"/>
-    <mergeCell ref="N87:N91"/>
-    <mergeCell ref="R87:R91"/>
-    <mergeCell ref="V87:V91"/>
-    <mergeCell ref="G87:J91"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="O85:R85"/>
-    <mergeCell ref="S85:V85"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="B83:V84"/>
-    <mergeCell ref="C78:F81"/>
-    <mergeCell ref="K78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="R78:R81"/>
-    <mergeCell ref="V78:V81"/>
-    <mergeCell ref="G78:J81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:F76"/>
   </mergeCells>
   <conditionalFormatting sqref="C41 C78:C79 K78:K79 N78:V79">
-    <cfRule type="cellIs" dxfId="255" priority="257" operator="equal">
+    <cfRule type="containsText" dxfId="248" priority="260" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",C41)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="247" priority="259" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",C41))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="258" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="257" operator="equal">
       <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="258" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="253" priority="259" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",C41))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="260" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="251" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="201" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="202" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="249" priority="203" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="242" priority="203" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C52))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="204" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="241" priority="204" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="containsText" dxfId="247" priority="32" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="240" priority="32" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="29" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="30" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="244" priority="31" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="237" priority="31" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C60))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C70">
-    <cfRule type="cellIs" dxfId="243" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="181" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="182" operator="equal">
+    <cfRule type="notContainsText" dxfId="235" priority="183" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",C68))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="184" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",C68)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="182" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="241" priority="183" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",C68))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="184" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",C68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C89">
-    <cfRule type="notContainsText" dxfId="239" priority="143" operator="notContains" text="×">
+    <cfRule type="cellIs" dxfId="232" priority="142" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="141" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="230" priority="144" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",C87)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="229" priority="143" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C87))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="144" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",C87)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="142" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="141" operator="equal">
-      <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:E14">
-    <cfRule type="cellIs" dxfId="235" priority="303" operator="equal">
+    <cfRule type="notContainsText" dxfId="228" priority="304" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",C6))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="303" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="305" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="226" priority="302" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="225" priority="305" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C6)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="233" priority="304" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",C6))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="302" operator="equal">
-      <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:E26">
-    <cfRule type="notContainsText" dxfId="231" priority="101" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="224" priority="101" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C20))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="100" operator="equal">
+    <cfRule type="containsText" dxfId="223" priority="102" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",C20)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="99" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="100" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="99" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="102" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:E35">
-    <cfRule type="containsText" dxfId="227" priority="88" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="220" priority="85" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="86" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="218" priority="88" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="86" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="85" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="224" priority="87" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="217" priority="87" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",C33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:F32">
-    <cfRule type="containsText" dxfId="223" priority="92" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="216" priority="90" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="215" priority="91" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",C32))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="92" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",C32)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="222" priority="91" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",C32))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="89" operator="equal">
       <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="90" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="219" priority="301" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="212" priority="298" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="211" priority="300" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",F6))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="301" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",F6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="299" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="298" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="216" priority="300" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",F6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="215" priority="95" operator="equal">
+    <cfRule type="containsText" dxfId="208" priority="98" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",F20)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="207" priority="97" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",F20))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="96" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="95" operator="equal">
       <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="214" priority="97" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",F20))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="96" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="98" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="notContainsText" dxfId="211" priority="93" operator="notContains" text="×">
+    <cfRule type="containsText" dxfId="204" priority="94" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",F32)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="203" priority="93" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",F32))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="94" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G26">
-    <cfRule type="containsText" dxfId="209" priority="44" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="202" priority="44" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="41" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="42" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="206" priority="43" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="199" priority="43" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G35">
-    <cfRule type="containsText" dxfId="205" priority="40" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="198" priority="37" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="38" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="196" priority="39" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",G32))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="195" priority="40" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G32)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="37" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="38" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="202" priority="39" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",G32))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="201" priority="82" operator="equal">
+    <cfRule type="containsText" dxfId="194" priority="84" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",G41)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="82" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="200" priority="83" operator="notContains" text="×">
+    <cfRule type="cellIs" dxfId="192" priority="81" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="191" priority="83" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G41))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="84" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",G41)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="81" operator="equal">
-      <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="197" priority="61" operator="equal">
+    <cfRule type="containsText" dxfId="190" priority="64" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",G52)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="189" priority="63" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",G52))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="61" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="62" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="195" priority="63" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",G52))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="64" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",G52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="containsText" dxfId="193" priority="16" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="186" priority="16" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="14" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="13" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="14" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="190" priority="15" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="183" priority="15" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G60))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:G70">
-    <cfRule type="cellIs" dxfId="189" priority="58" operator="equal">
+    <cfRule type="notContainsText" dxfId="182" priority="59" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",G68))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="57" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="58" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="57" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="60" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="179" priority="60" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G68)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="186" priority="59" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",G68))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:G79">
-    <cfRule type="containsText" dxfId="185" priority="56" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="178" priority="53" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="56" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G78)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="53" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="54" operator="equal">
+    <cfRule type="notContainsText" dxfId="176" priority="55" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",G78))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="54" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="182" priority="55" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",G78))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:G89">
-    <cfRule type="notContainsText" dxfId="181" priority="51" operator="notContains" text="×">
+    <cfRule type="cellIs" dxfId="174" priority="50" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="173" priority="51" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G87))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="52" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="172" priority="52" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G87)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="50" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="49" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:I14">
-    <cfRule type="notContainsText" dxfId="177" priority="127" operator="notContains" text="×">
+    <cfRule type="cellIs" dxfId="170" priority="125" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="126" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="168" priority="127" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",G6))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="125" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="126" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="128" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="167" priority="128" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:J20 H21:I26">
-    <cfRule type="containsText" dxfId="173" priority="246" operator="containsText" text="Mesmo">
+    <cfRule type="containsText" dxfId="166" priority="246" operator="containsText" text="Mesmo">
       <formula>NOT(ISERROR(SEARCH("Mesmo",H20)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="172" priority="248" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="165" priority="248" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",H20))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="249" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="164" priority="249" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",H20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:J32 H33:I35">
-    <cfRule type="containsText" dxfId="170" priority="236" operator="containsText" text="Mesmo">
+    <cfRule type="notContainsText" dxfId="163" priority="237" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",H32))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="236" operator="containsText" text="Mesmo">
       <formula>NOT(ISERROR(SEARCH("Mesmo",H32)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="169" priority="237" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",H32))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="238" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="161" priority="238" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="167" priority="121" operator="equal">
+    <cfRule type="notContainsText" dxfId="160" priority="123" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",J6))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="124" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",J6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="122" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="121" operator="equal">
       <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="122" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="165" priority="123" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",J6))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="124" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" dxfId="163" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="69" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="162" priority="71" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="155" priority="71" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K41))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="72" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="154" priority="70" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="72" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K41)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="70" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="notContainsText" dxfId="159" priority="195" operator="notContains" text="×">
+    <cfRule type="containsText" dxfId="152" priority="196" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",K52)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="194" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="193" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="149" priority="195" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K52))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="193" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="196" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",K52)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="194" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="containsText" dxfId="155" priority="24" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="148" priority="21" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="22" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="146" priority="23" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",K60))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="24" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K60)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="21" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="22" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="152" priority="23" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",K60))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:K70">
-    <cfRule type="cellIs" dxfId="151" priority="174" operator="equal">
+    <cfRule type="notContainsText" dxfId="144" priority="175" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",K68))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="173" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="174" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="173" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="176" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="141" priority="176" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K68)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="148" priority="175" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",K68))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K87:K89">
-    <cfRule type="notContainsText" dxfId="147" priority="135" operator="notContains" text="×">
+    <cfRule type="containsText" dxfId="140" priority="136" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",K87)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="133" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="134" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="137" priority="135" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K87))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="136" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",K87)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="133" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="134" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:M14">
-    <cfRule type="cellIs" dxfId="143" priority="114" operator="equal">
+    <cfRule type="containsText" dxfId="136" priority="117" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",K6)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="135" priority="116" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",K6))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="115" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="114" operator="equal">
       <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="115" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="141" priority="116" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",K6))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="117" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:M26">
-    <cfRule type="cellIs" dxfId="139" priority="326" operator="equal">
+    <cfRule type="notContainsText" dxfId="132" priority="328" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",K20))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="326" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="327" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="137" priority="328" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",K20))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="329" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="129" priority="329" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:M35 O32:Q35">
-    <cfRule type="notContainsText" dxfId="135" priority="288" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="128" priority="288" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",K32))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:M35">
-    <cfRule type="cellIs" dxfId="134" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="287" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="286" operator="equal">
       <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="287" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:N32">
-    <cfRule type="containsText" dxfId="132" priority="421" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="125" priority="360" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="361" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="123" priority="420" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",K32))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="421" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K32)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="360" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="361" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="129" priority="420" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",K32))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsText" dxfId="128" priority="113" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="121" priority="113" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="110" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="126" priority="112" operator="notContains" text="×">
+    <cfRule type="cellIs" dxfId="119" priority="111" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="118" priority="112" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N6))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="111" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="notContainsText" dxfId="124" priority="324" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="117" priority="324" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N20))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="322" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="323" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="325" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="114" priority="325" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="containsText" dxfId="120" priority="423" operator="containsText" text="×">
+    <cfRule type="notContainsText" dxfId="113" priority="422" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",N32))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="423" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N32)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="119" priority="422" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",N32))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:R41 O42:Q46">
-    <cfRule type="containsText" dxfId="118" priority="68" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="111" priority="68" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:V41">
-    <cfRule type="cellIs" dxfId="117" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="9" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52:V52">
-    <cfRule type="containsText" dxfId="115" priority="192" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="108" priority="190" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="189" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="192" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N52)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="114" priority="191" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="105" priority="191" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N52))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="190" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="189" operator="equal">
-      <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:V60">
-    <cfRule type="cellIs" dxfId="111" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="18" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="17" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="20" operator="containsText" text="×">
+    <cfRule type="notContainsText" dxfId="102" priority="19" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",N60))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="20" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N60)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="109" priority="19" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",N60))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="18" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N68:V70">
-    <cfRule type="containsText" dxfId="107" priority="172" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="100" priority="170" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="169" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="98" priority="171" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",N68))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="172" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N68)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="169" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="170" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="104" priority="171" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",N68))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N87:V89">
-    <cfRule type="cellIs" dxfId="103" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="130" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="102" priority="131" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="95" priority="131" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N87))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="132" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="94" priority="132" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",N87)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="129" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O14">
-    <cfRule type="containsText" dxfId="99" priority="48" operator="containsText" text="×">
+  <conditionalFormatting sqref="O6:Q14">
+    <cfRule type="containsText" dxfId="92" priority="8" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",O6)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="98" priority="47" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="91" priority="7" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O6))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="5" operator="equal">
       <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="46" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:Q26">
-    <cfRule type="containsText" dxfId="95" priority="321" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="88" priority="321" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",O20)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="94" priority="320" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="87" priority="320" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O20))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="318" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="319" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="318" operator="equal">
-      <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q35 K33:M35">
-    <cfRule type="containsText" dxfId="91" priority="289" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="84" priority="289" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",K32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:Q35">
-    <cfRule type="cellIs" dxfId="90" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="284" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="285" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42:Q46 N41:R41">
-    <cfRule type="notContainsText" dxfId="88" priority="67" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="81" priority="67" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",N41))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42:Q46">
-    <cfRule type="cellIs" dxfId="87" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="65" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="66" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O53:Q54">
-    <cfRule type="containsText" dxfId="85" priority="208" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="78" priority="205" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="206" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="208" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",O53)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="84" priority="207" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="75" priority="207" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O53))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="206" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="205" operator="equal">
-      <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O61:Q62">
-    <cfRule type="notContainsText" dxfId="81" priority="35" operator="notContains" text="×">
+    <cfRule type="containsText" dxfId="74" priority="36" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",O61)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="34" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="72" priority="35" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O61))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="36" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",O61)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="33" operator="equal">
       <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="34" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O71:Q72">
-    <cfRule type="cellIs" dxfId="77" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="185" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="186" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="185" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="75" priority="187" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="68" priority="187" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O71))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="188" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="67" priority="188" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",O71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O80:Q81">
-    <cfRule type="notContainsText" dxfId="73" priority="167" operator="notContains" text="×">
+    <cfRule type="containsText" dxfId="66" priority="168" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",O80)))</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="65" priority="167" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O80))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="165" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="166" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="168" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",O80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O90:Q91">
-    <cfRule type="containsText" dxfId="69" priority="148" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="62" priority="148" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",O90)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="68" priority="147" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="61" priority="147" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",O90))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="146" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="145" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="146" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="56" priority="3" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",R6))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",R6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="containsText" dxfId="62" priority="317" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="54" priority="314" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="317" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",R20)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="61" priority="316" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="52" priority="316" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",R20))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="315" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="314" operator="equal">
-      <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32">
-    <cfRule type="containsText" dxfId="58" priority="353" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="50" priority="353" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",R32)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="57" priority="352" operator="notContains" text="×">
+    <cfRule type="cellIs" dxfId="49" priority="351" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="350" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="47" priority="352" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",R32))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="350" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="351" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6">
-    <cfRule type="containsText" dxfId="54" priority="109" operator="containsText" text="×">
+    <cfRule type="notContainsText" dxfId="46" priority="108" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",S6))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="107" operator="containsText" text="Administrador">
+      <formula>NOT(ISERROR(SEARCH("Administrador",S6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="109" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="107" operator="containsText" text="Administrador">
-      <formula>NOT(ISERROR(SEARCH("Administrador",S6)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="52" priority="108" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",S6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="containsText" dxfId="51" priority="243" operator="containsText" text="Mesmo">
+    <cfRule type="containsText" dxfId="43" priority="243" operator="containsText" text="Mesmo">
       <formula>NOT(ISERROR(SEARCH("Mesmo",S20)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="50" priority="244" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="42" priority="244" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S20))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="245" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="41" priority="245" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32">
-    <cfRule type="containsText" dxfId="48" priority="221" operator="containsText" text="Mesmo">
+    <cfRule type="containsText" dxfId="40" priority="223" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",S32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="221" operator="containsText" text="Mesmo">
       <formula>NOT(ISERROR(SEARCH("Mesmo",S32)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="47" priority="222" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="38" priority="222" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S32))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="223" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",S32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41:U41 U41:U46 S42:T46">
-    <cfRule type="containsText" dxfId="45" priority="76" operator="containsText" text="×">
+    <cfRule type="notContainsText" dxfId="37" priority="75" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",S41))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="76" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S41)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="44" priority="75" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",S41))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:U54">
-    <cfRule type="containsText" dxfId="43" priority="200" operator="containsText" text="×">
+    <cfRule type="cellIs" dxfId="35" priority="197" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="198" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="33" priority="199" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",S53))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="200" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S53)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="197" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="198" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="40" priority="199" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",S53))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S61:U62">
-    <cfRule type="notContainsText" dxfId="39" priority="27" operator="notContains" text="×">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="29" priority="27" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S61))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="25" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="28" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S71:U72">
-    <cfRule type="cellIs" dxfId="35" priority="178" operator="equal">
+    <cfRule type="notContainsText" dxfId="27" priority="179" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",S71))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="177" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="178" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="180" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="24" priority="180" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S71)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="33" priority="179" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",S71))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="177" operator="equal">
-      <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S80:U81">
-    <cfRule type="cellIs" dxfId="31" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="158" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="30" priority="159" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="22" priority="159" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S80))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="160" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="21" priority="160" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S80)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="157" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S90:U91">
-    <cfRule type="notContainsText" dxfId="27" priority="139" operator="notContains" text="×">
+    <cfRule type="cellIs" dxfId="19" priority="137" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="18" priority="139" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",S90))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="138" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="137" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="140" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="16" priority="140" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",S90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41:U46 S42:T46">
-    <cfRule type="cellIs" dxfId="23" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="73" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="74" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="73" operator="equal">
-      <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="21" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="104" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="12" priority="105" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",V6))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="103" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="20" priority="105" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",V6))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="104" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="106" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="10" priority="106" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",V6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="17" priority="239" operator="equal">
+    <cfRule type="containsText" dxfId="9" priority="242" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",V20)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="240" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="notContainsText" dxfId="7" priority="241" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",V20))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="239" operator="equal">
       <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="242" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",V20)))</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="15" priority="241" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",V20))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="240" operator="equal">
-      <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="cellIs" dxfId="13" priority="228" operator="equal">
+    <cfRule type="notContainsText" dxfId="5" priority="230" operator="notContains" text="×">
+      <formula>ISERROR(SEARCH("×",V32))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="231" operator="containsText" text="×">
+      <formula>NOT(ISERROR(SEARCH("×",V32)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="228" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="12" priority="230" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",V32))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="231" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",V32)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="229" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V41">
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="×">
+    <cfRule type="containsText" dxfId="1" priority="12" operator="containsText" text="×">
       <formula>NOT(ISERROR(SEARCH("×",V41)))</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="8" priority="11" operator="notContains" text="×">
+    <cfRule type="notContainsText" dxfId="0" priority="11" operator="notContains" text="×">
       <formula>ISERROR(SEARCH("×",V41))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6:Q14">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="5" priority="7" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",P6))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",P6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="notContainsText" dxfId="1" priority="3" operator="notContains" text="×">
-      <formula>ISERROR(SEARCH("×",R6))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="×">
-      <formula>NOT(ISERROR(SEARCH("×",R6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7515,6 +7452,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87289aac-3191-415d-94b6-004c2ae78a31" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BDF39B024F04A14486BA613BEA42AFF1" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5986e6510f5042a6e15da83068074cc6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87289aac-3191-415d-94b6-004c2ae78a31" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c206dcc707f643c7db63c115c073023" ns3:_="">
     <xsd:import namespace="87289aac-3191-415d-94b6-004c2ae78a31"/>
@@ -7696,37 +7650,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87289aac-3191-415d-94b6-004c2ae78a31" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4955B737-BB7F-4B2E-B1C9-6EDED895594F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51F5C3A-407A-48AB-8FE8-F11F29C95185}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87289aac-3191-415d-94b6-004c2ae78a31"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7748,9 +7675,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51F5C3A-407A-48AB-8FE8-F11F29C95185}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4955B737-BB7F-4B2E-B1C9-6EDED895594F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87289aac-3191-415d-94b6-004c2ae78a31"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>